--- a/st7735/cos.xlsx
+++ b/st7735/cos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORB User\Documents\GitHub\Stuff\st7735\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A754E-32CA-4F0B-9FA1-371FB6574380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B5721-0B20-4640-825F-13FCD74EECAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="8460" xr2:uid="{6D299AAA-4D0C-46B6-97A3-EE8DB9A2C16D}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,11 +427,11 @@
         <f>RADIANS(A1)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <f>COS(RADIANS(A1))</f>
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="1">
         <f>SIN(RADIANS(A1))</f>
         <v>0</v>
       </c>
@@ -447,11 +447,11 @@
         <f t="shared" ref="B2:B65" si="0">RADIANS(A2)</f>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C1:C64" si="1">COS(RADIANS(A2))</f>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C64" si="1">COS(RADIANS(A2))</f>
         <v>0.99984769515639127</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D65" si="2">SIN(RADIANS(A2))</f>
         <v>1.7452406437283512E-2</v>
       </c>
@@ -467,11 +467,11 @@
         <f t="shared" si="0"/>
         <v>3.4906585039886591E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <f t="shared" si="1"/>
         <v>0.99939082701909576</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <f t="shared" si="2"/>
         <v>3.4899496702500969E-2</v>
       </c>
@@ -488,11 +488,11 @@
         <f t="shared" si="0"/>
         <v>5.235987755982989E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <f t="shared" si="1"/>
         <v>0.99862953475457383</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <f t="shared" si="2"/>
         <v>5.2335956242943835E-2</v>
       </c>
@@ -509,11 +509,11 @@
         <f t="shared" si="0"/>
         <v>6.9813170079773182E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>0.9975640502598242</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <f t="shared" si="2"/>
         <v>6.9756473744125302E-2</v>
       </c>
@@ -530,11 +530,11 @@
         <f t="shared" si="0"/>
         <v>8.7266462599716474E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0.99619469809174555</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <f t="shared" si="2"/>
         <v>8.7155742747658166E-2</v>
       </c>
@@ -551,11 +551,11 @@
         <f t="shared" si="0"/>
         <v>0.10471975511965978</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0.99452189536827329</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <f t="shared" si="2"/>
         <v>0.10452846326765347</v>
       </c>
@@ -572,11 +572,11 @@
         <f t="shared" si="0"/>
         <v>0.12217304763960307</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0.99254615164132198</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <f t="shared" si="2"/>
         <v>0.12186934340514748</v>
       </c>
@@ -593,11 +593,11 @@
         <f t="shared" si="0"/>
         <v>0.13962634015954636</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0.99026806874157036</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>0.13917310096006544</v>
       </c>
@@ -614,11 +614,11 @@
         <f t="shared" si="0"/>
         <v>0.15707963267948966</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0.98768834059513777</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>0.15643446504023087</v>
       </c>
@@ -635,11 +635,11 @@
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>0.17364817766693033</v>
       </c>
@@ -656,11 +656,11 @@
         <f t="shared" si="0"/>
         <v>0.19198621771937624</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>0.98162718344766398</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>0.1908089953765448</v>
       </c>
@@ -677,11 +677,11 @@
         <f t="shared" si="0"/>
         <v>0.20943951023931956</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>0.97814760073380569</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>0.20791169081775934</v>
       </c>
@@ -698,11 +698,11 @@
         <f t="shared" si="0"/>
         <v>0.22689280275926285</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>0.97437006478523525</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>0.224951054343865</v>
       </c>
@@ -719,11 +719,11 @@
         <f t="shared" si="0"/>
         <v>0.24434609527920614</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <f t="shared" si="1"/>
         <v>0.97029572627599647</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>0.24192189559966773</v>
       </c>
@@ -740,11 +740,11 @@
         <f t="shared" si="0"/>
         <v>0.26179938779914941</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>0.96592582628906831</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>0.25881904510252074</v>
       </c>
@@ -761,11 +761,11 @@
         <f t="shared" si="0"/>
         <v>0.27925268031909273</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>0.96126169593831889</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>0.27563735581699916</v>
       </c>
@@ -782,11 +782,11 @@
         <f t="shared" si="0"/>
         <v>0.29670597283903605</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>0.95630475596303544</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>0.29237170472273677</v>
       </c>
@@ -803,11 +803,11 @@
         <f t="shared" si="0"/>
         <v>0.31415926535897931</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <f t="shared" si="2"/>
         <v>0.3090169943749474</v>
       </c>
@@ -824,11 +824,11 @@
         <f t="shared" si="0"/>
         <v>0.33161255787892263</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>0.94551857559931685</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <f t="shared" si="2"/>
         <v>0.3255681544571567</v>
       </c>
@@ -845,11 +845,11 @@
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <f t="shared" si="2"/>
         <v>0.34202014332566871</v>
       </c>
@@ -866,11 +866,11 @@
         <f t="shared" si="0"/>
         <v>0.36651914291880922</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>0.93358042649720174</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
         <v>0.35836794954530027</v>
       </c>
@@ -887,11 +887,11 @@
         <f t="shared" si="0"/>
         <v>0.38397243543875248</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>0.92718385456678742</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <f t="shared" si="2"/>
         <v>0.37460659341591201</v>
       </c>
@@ -908,11 +908,11 @@
         <f t="shared" si="0"/>
         <v>0.4014257279586958</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <f t="shared" si="1"/>
         <v>0.92050485345244037</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <f t="shared" si="2"/>
         <v>0.39073112848927377</v>
       </c>
@@ -929,11 +929,11 @@
         <f t="shared" si="0"/>
         <v>0.41887902047863912</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <f t="shared" si="1"/>
         <v>0.91354545764260087</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f t="shared" si="2"/>
         <v>0.40673664307580021</v>
       </c>
@@ -950,11 +950,11 @@
         <f t="shared" si="0"/>
         <v>0.43633231299858238</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
         <v>0.90630778703664994</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>0.42261826174069944</v>
       </c>
@@ -971,11 +971,11 @@
         <f t="shared" si="0"/>
         <v>0.4537856055185257</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>0.89879404629916704</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <f t="shared" si="2"/>
         <v>0.4383711467890774</v>
       </c>
@@ -992,11 +992,11 @@
         <f t="shared" si="0"/>
         <v>0.47123889803846897</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <f t="shared" si="1"/>
         <v>0.8910065241883679</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <f t="shared" si="2"/>
         <v>0.45399049973954675</v>
       </c>
@@ -1013,11 +1013,11 @@
         <f t="shared" si="0"/>
         <v>0.48869219055841229</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>0.88294759285892699</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <f t="shared" si="2"/>
         <v>0.46947156278589081</v>
       </c>
@@ -1034,11 +1034,11 @@
         <f t="shared" si="0"/>
         <v>0.50614548307835561</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>0.87461970713939574</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <f t="shared" si="2"/>
         <v>0.48480962024633706</v>
       </c>
@@ -1055,11 +1055,11 @@
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
       </c>
@@ -1076,11 +1076,11 @@
         <f t="shared" si="0"/>
         <v>0.54105206811824214</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>0.85716730070211233</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <f t="shared" si="2"/>
         <v>0.51503807491005416</v>
       </c>
@@ -1097,11 +1097,11 @@
         <f t="shared" si="0"/>
         <v>0.55850536063818546</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>0.84804809615642596</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <f t="shared" si="2"/>
         <v>0.5299192642332049</v>
       </c>
@@ -1118,11 +1118,11 @@
         <f t="shared" si="0"/>
         <v>0.57595865315812877</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>0.83867056794542405</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
         <v>0.54463903501502708</v>
       </c>
@@ -1139,11 +1139,11 @@
         <f t="shared" si="0"/>
         <v>0.59341194567807209</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>0.82903757255504162</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
         <v>0.5591929034707469</v>
       </c>
@@ -1160,11 +1160,11 @@
         <f t="shared" si="0"/>
         <v>0.6108652381980153</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>0.8191520442889918</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>0.57357643635104605</v>
       </c>
@@ -1181,11 +1181,11 @@
         <f t="shared" si="0"/>
         <v>0.62831853071795862</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>0.80901699437494745</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>0.58778525229247314</v>
       </c>
@@ -1202,11 +1202,11 @@
         <f t="shared" si="0"/>
         <v>0.64577182323790194</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>0.79863551004729283</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>0.60181502315204827</v>
       </c>
@@ -1223,11 +1223,11 @@
         <f t="shared" si="0"/>
         <v>0.66322511575784526</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>0.7880107536067219</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>0.61566147532565829</v>
       </c>
@@ -1244,11 +1244,11 @@
         <f t="shared" si="0"/>
         <v>0.68067840827778847</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
         <v>0.7771459614569709</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>0.62932039104983739</v>
       </c>
@@ -1265,11 +1265,11 @@
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>0.64278760968653925</v>
       </c>
@@ -1286,11 +1286,11 @@
         <f t="shared" si="0"/>
         <v>0.71558499331767511</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>0.75470958022277201</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>0.65605902899050728</v>
       </c>
@@ -1307,11 +1307,11 @@
         <f t="shared" si="0"/>
         <v>0.73303828583761843</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <f t="shared" si="1"/>
         <v>0.74314482547739424</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <f t="shared" si="2"/>
         <v>0.66913060635885824</v>
       </c>
@@ -1328,11 +1328,11 @@
         <f t="shared" si="0"/>
         <v>0.75049157835756175</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <f t="shared" si="1"/>
         <v>0.73135370161917046</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <f t="shared" si="2"/>
         <v>0.68199836006249848</v>
       </c>
@@ -1349,11 +1349,11 @@
         <f t="shared" si="0"/>
         <v>0.76794487087750496</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <f t="shared" si="1"/>
         <v>0.71933980033865119</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <f t="shared" si="2"/>
         <v>0.69465837045899725</v>
       </c>
@@ -1370,11 +1370,11 @@
         <f t="shared" si="0"/>
         <v>0.78539816339744828</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <f t="shared" si="2"/>
         <v>0.70710678118654746</v>
       </c>
@@ -1391,11 +1391,11 @@
         <f t="shared" si="0"/>
         <v>0.8028514559173916</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <f t="shared" si="1"/>
         <v>0.69465837045899725</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <f t="shared" si="2"/>
         <v>0.71933980033865108</v>
       </c>
@@ -1412,11 +1412,11 @@
         <f t="shared" si="0"/>
         <v>0.82030474843733492</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <f t="shared" si="1"/>
         <v>0.68199836006249848</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <f t="shared" si="2"/>
         <v>0.73135370161917046</v>
       </c>
@@ -1433,11 +1433,11 @@
         <f t="shared" si="0"/>
         <v>0.83775804095727824</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <f t="shared" si="1"/>
         <v>0.66913060635885824</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <f t="shared" si="2"/>
         <v>0.74314482547739424</v>
       </c>
@@ -1454,11 +1454,11 @@
         <f t="shared" si="0"/>
         <v>0.85521133347722145</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <f t="shared" si="1"/>
         <v>0.65605902899050728</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <f t="shared" si="2"/>
         <v>0.75470958022277201</v>
       </c>
@@ -1475,11 +1475,11 @@
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <f t="shared" si="1"/>
         <v>0.64278760968653936</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <f t="shared" si="2"/>
         <v>0.76604444311897801</v>
       </c>
@@ -1496,11 +1496,11 @@
         <f t="shared" si="0"/>
         <v>0.89011791851710809</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <f t="shared" si="1"/>
         <v>0.6293203910498375</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <f t="shared" si="2"/>
         <v>0.7771459614569709</v>
       </c>
@@ -1517,11 +1517,11 @@
         <f t="shared" si="0"/>
         <v>0.90757121103705141</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <f t="shared" si="1"/>
         <v>0.61566147532565829</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <f t="shared" si="2"/>
         <v>0.78801075360672201</v>
       </c>
@@ -1538,11 +1538,11 @@
         <f t="shared" si="0"/>
         <v>0.92502450355699462</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <f t="shared" si="1"/>
         <v>0.60181502315204838</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <f t="shared" si="2"/>
         <v>0.79863551004729283</v>
       </c>
@@ -1559,11 +1559,11 @@
         <f t="shared" si="0"/>
         <v>0.94247779607693793</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <f t="shared" si="2"/>
         <v>0.80901699437494745</v>
       </c>
@@ -1580,11 +1580,11 @@
         <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <f t="shared" si="1"/>
         <v>0.57357643635104616</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <f t="shared" si="2"/>
         <v>0.8191520442889918</v>
       </c>
@@ -1601,11 +1601,11 @@
         <f t="shared" si="0"/>
         <v>0.97738438111682457</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <f t="shared" si="1"/>
         <v>0.55919290347074679</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <f t="shared" si="2"/>
         <v>0.82903757255504174</v>
       </c>
@@ -1622,11 +1622,11 @@
         <f t="shared" si="0"/>
         <v>0.99483767363676789</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <f t="shared" si="1"/>
         <v>0.54463903501502708</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <f t="shared" si="2"/>
         <v>0.83867056794542405</v>
       </c>
@@ -1643,11 +1643,11 @@
         <f t="shared" si="0"/>
         <v>1.0122909661567112</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <f t="shared" si="1"/>
         <v>0.5299192642332049</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <f t="shared" si="2"/>
         <v>0.84804809615642596</v>
       </c>
@@ -1664,11 +1664,11 @@
         <f t="shared" si="0"/>
         <v>1.0297442586766545</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <f t="shared" si="1"/>
         <v>0.51503807491005416</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <f t="shared" si="2"/>
         <v>0.85716730070211233</v>
       </c>
@@ -1685,11 +1685,11 @@
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <f t="shared" si="2"/>
         <v>0.8660254037844386</v>
       </c>
@@ -1706,11 +1706,11 @@
         <f t="shared" si="0"/>
         <v>1.064650843716541</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <f t="shared" si="1"/>
         <v>0.48480962024633711</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="1">
         <f t="shared" si="2"/>
         <v>0.87461970713939574</v>
       </c>
@@ -1727,11 +1727,11 @@
         <f t="shared" si="0"/>
         <v>1.0821041362364843</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <f t="shared" si="1"/>
         <v>0.46947156278589086</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <f t="shared" si="2"/>
         <v>0.88294759285892688</v>
       </c>
@@ -1748,11 +1748,11 @@
         <f t="shared" si="0"/>
         <v>1.0995574287564276</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <f t="shared" si="1"/>
         <v>0.4539904997395468</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <f t="shared" si="2"/>
         <v>0.89100652418836779</v>
       </c>
@@ -1769,11 +1769,11 @@
         <f t="shared" si="0"/>
         <v>1.1170107212763709</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <f t="shared" ref="C65:C128" si="4">COS(RADIANS(A65))</f>
         <v>0.43837114678907746</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <f t="shared" si="2"/>
         <v>0.89879404629916704</v>
       </c>
@@ -1790,11 +1790,11 @@
         <f t="shared" ref="B66:B129" si="5">RADIANS(A66)</f>
         <v>1.1344640137963142</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <f t="shared" si="4"/>
         <v>0.42261826174069944</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <f t="shared" ref="D66:D129" si="6">SIN(RADIANS(A66))</f>
         <v>0.90630778703664994</v>
       </c>
@@ -1811,11 +1811,11 @@
         <f t="shared" si="5"/>
         <v>1.1519173063162575</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <f t="shared" si="4"/>
         <v>0.40673664307580021</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <f t="shared" si="6"/>
         <v>0.91354545764260087</v>
       </c>
@@ -1832,11 +1832,11 @@
         <f t="shared" si="5"/>
         <v>1.1693705988362009</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <f t="shared" si="4"/>
         <v>0.39073112848927372</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <f t="shared" si="6"/>
         <v>0.92050485345244037</v>
       </c>
@@ -1853,11 +1853,11 @@
         <f t="shared" si="5"/>
         <v>1.1868238913561442</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <f t="shared" si="4"/>
         <v>0.37460659341591196</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <f t="shared" si="6"/>
         <v>0.92718385456678742</v>
       </c>
@@ -1874,11 +1874,11 @@
         <f t="shared" si="5"/>
         <v>1.2042771838760873</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <f t="shared" si="4"/>
         <v>0.35836794954530038</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <f t="shared" si="6"/>
         <v>0.93358042649720174</v>
       </c>
@@ -1895,11 +1895,11 @@
         <f t="shared" si="5"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <f t="shared" si="4"/>
         <v>0.34202014332566882</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <f t="shared" si="6"/>
         <v>0.93969262078590832</v>
       </c>
@@ -1916,11 +1916,11 @@
         <f t="shared" si="5"/>
         <v>1.2391837689159739</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <f t="shared" si="4"/>
         <v>0.32556815445715676</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <f t="shared" si="6"/>
         <v>0.94551857559931674</v>
       </c>
@@ -1937,11 +1937,11 @@
         <f t="shared" si="5"/>
         <v>1.2566370614359172</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <f t="shared" si="4"/>
         <v>0.30901699437494745</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
         <f t="shared" si="6"/>
         <v>0.95105651629515353</v>
       </c>
@@ -1958,11 +1958,11 @@
         <f t="shared" si="5"/>
         <v>1.2740903539558606</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <f t="shared" si="4"/>
         <v>0.29237170472273677</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
         <f t="shared" si="6"/>
         <v>0.95630475596303544</v>
       </c>
@@ -1979,11 +1979,11 @@
         <f t="shared" si="5"/>
         <v>1.2915436464758039</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <f t="shared" si="4"/>
         <v>0.27563735581699916</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="1">
         <f t="shared" si="6"/>
         <v>0.96126169593831889</v>
       </c>
@@ -2000,11 +2000,11 @@
         <f t="shared" si="5"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <f t="shared" si="4"/>
         <v>0.25881904510252074</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="1">
         <f t="shared" si="6"/>
         <v>0.96592582628906831</v>
       </c>
@@ -2021,11 +2021,11 @@
         <f t="shared" si="5"/>
         <v>1.3264502315156905</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <f t="shared" si="4"/>
         <v>0.24192189559966767</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="1">
         <f t="shared" si="6"/>
         <v>0.97029572627599647</v>
       </c>
@@ -2042,11 +2042,11 @@
         <f t="shared" si="5"/>
         <v>1.3439035240356338</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <f t="shared" si="4"/>
         <v>0.22495105434386492</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="1">
         <f t="shared" si="6"/>
         <v>0.97437006478523525</v>
       </c>
@@ -2063,11 +2063,11 @@
         <f t="shared" si="5"/>
         <v>1.3613568165555769</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <f t="shared" si="4"/>
         <v>0.20791169081775945</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="1">
         <f t="shared" si="6"/>
         <v>0.97814760073380558</v>
       </c>
@@ -2084,11 +2084,11 @@
         <f t="shared" si="5"/>
         <v>1.3788101090755203</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <f t="shared" si="4"/>
         <v>0.19080899537654492</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="1">
         <f t="shared" si="6"/>
         <v>0.98162718344766398</v>
       </c>
@@ -2105,11 +2105,11 @@
         <f t="shared" si="5"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <f t="shared" si="4"/>
         <v>0.17364817766693041</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="1">
         <f t="shared" si="6"/>
         <v>0.98480775301220802</v>
       </c>
@@ -2126,11 +2126,11 @@
         <f t="shared" si="5"/>
         <v>1.4137166941154069</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <f t="shared" si="4"/>
         <v>0.15643446504023092</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="1">
         <f t="shared" si="6"/>
         <v>0.98768834059513777</v>
       </c>
@@ -2147,11 +2147,11 @@
         <f t="shared" si="5"/>
         <v>1.4311699866353502</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <f t="shared" si="4"/>
         <v>0.13917310096006547</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="1">
         <f t="shared" si="6"/>
         <v>0.99026806874157036</v>
       </c>
@@ -2168,11 +2168,11 @@
         <f t="shared" si="5"/>
         <v>1.4486232791552935</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="1">
         <f t="shared" si="4"/>
         <v>0.12186934340514749</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="1">
         <f t="shared" si="6"/>
         <v>0.99254615164132198</v>
       </c>
@@ -2189,11 +2189,11 @@
         <f t="shared" si="5"/>
         <v>1.4660765716752369</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <f t="shared" si="4"/>
         <v>0.10452846326765346</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="1">
         <f t="shared" si="6"/>
         <v>0.99452189536827329</v>
       </c>
@@ -2210,11 +2210,11 @@
         <f t="shared" si="5"/>
         <v>1.4835298641951802</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="1">
         <f t="shared" si="4"/>
         <v>8.7155742747658138E-2</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="1">
         <f t="shared" si="6"/>
         <v>0.99619469809174555</v>
       </c>
@@ -2231,11 +2231,11 @@
         <f t="shared" si="5"/>
         <v>1.5009831567151235</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <f t="shared" si="4"/>
         <v>6.9756473744125233E-2</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <f t="shared" si="6"/>
         <v>0.9975640502598242</v>
       </c>
@@ -2252,11 +2252,11 @@
         <f t="shared" si="5"/>
         <v>1.5184364492350666</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="1">
         <f t="shared" si="4"/>
         <v>5.2335956242943966E-2</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="1">
         <f t="shared" si="6"/>
         <v>0.99862953475457383</v>
       </c>
@@ -2273,11 +2273,11 @@
         <f t="shared" si="5"/>
         <v>1.5358897417550099</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="1">
         <f t="shared" si="4"/>
         <v>3.489949670250108E-2</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="1">
         <f t="shared" si="6"/>
         <v>0.99939082701909576</v>
       </c>
@@ -2294,11 +2294,11 @@
         <f t="shared" si="5"/>
         <v>1.5533430342749532</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <f t="shared" si="4"/>
         <v>1.7452406437283598E-2</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="1">
         <f t="shared" si="6"/>
         <v>0.99984769515639127</v>
       </c>
@@ -2315,11 +2315,11 @@
         <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="1">
         <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -2336,11 +2336,11 @@
         <f t="shared" si="5"/>
         <v>1.5882496193148399</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <f t="shared" si="4"/>
         <v>-1.7452406437283477E-2</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="1">
         <f t="shared" si="6"/>
         <v>0.99984769515639127</v>
       </c>
@@ -2357,11 +2357,11 @@
         <f t="shared" si="5"/>
         <v>1.6057029118347832</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="1">
         <f t="shared" si="4"/>
         <v>-3.4899496702500955E-2</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="1">
         <f t="shared" si="6"/>
         <v>0.99939082701909576</v>
       </c>
@@ -2378,11 +2378,11 @@
         <f t="shared" si="5"/>
         <v>1.6231562043547265</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <f t="shared" si="4"/>
         <v>-5.2335956242943842E-2</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="1">
         <f t="shared" si="6"/>
         <v>0.99862953475457383</v>
       </c>
@@ -2399,11 +2399,11 @@
         <f t="shared" si="5"/>
         <v>1.6406094968746698</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="1">
         <f t="shared" si="4"/>
         <v>-6.975647374412533E-2</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="1">
         <f t="shared" si="6"/>
         <v>0.9975640502598242</v>
       </c>
@@ -2420,11 +2420,11 @@
         <f t="shared" si="5"/>
         <v>1.6580627893946132</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <f t="shared" si="4"/>
         <v>-8.7155742747658235E-2</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="1">
         <f t="shared" si="6"/>
         <v>0.99619469809174555</v>
       </c>
@@ -2441,11 +2441,11 @@
         <f t="shared" si="5"/>
         <v>1.6755160819145565</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <f t="shared" si="4"/>
         <v>-0.10452846326765355</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="1">
         <f t="shared" si="6"/>
         <v>0.99452189536827329</v>
       </c>
@@ -2462,11 +2462,11 @@
         <f t="shared" si="5"/>
         <v>1.6929693744344996</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <f t="shared" si="4"/>
         <v>-0.12186934340514737</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="1">
         <f t="shared" si="6"/>
         <v>0.99254615164132209</v>
       </c>
@@ -2483,11 +2483,11 @@
         <f t="shared" si="5"/>
         <v>1.7104226669544429</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <f t="shared" si="4"/>
         <v>-0.13917310096006535</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="1">
         <f t="shared" si="6"/>
         <v>0.99026806874157036</v>
       </c>
@@ -2504,11 +2504,11 @@
         <f t="shared" si="5"/>
         <v>1.7278759594743862</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="1">
         <f t="shared" si="4"/>
         <v>-0.15643446504023081</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="1">
         <f t="shared" si="6"/>
         <v>0.98768834059513777</v>
       </c>
@@ -2525,11 +2525,11 @@
         <f t="shared" si="5"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="1">
         <f t="shared" si="4"/>
         <v>-0.1736481776669303</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="1">
         <f t="shared" si="6"/>
         <v>0.98480775301220802</v>
       </c>
@@ -2546,11 +2546,11 @@
         <f t="shared" si="5"/>
         <v>1.7627825445142729</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="1">
         <f t="shared" si="4"/>
         <v>-0.1908089953765448</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="1">
         <f t="shared" si="6"/>
         <v>0.98162718344766398</v>
       </c>
@@ -2563,11 +2563,11 @@
         <f t="shared" si="5"/>
         <v>1.7802358370342162</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="1">
         <f t="shared" si="4"/>
         <v>-0.20791169081775934</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="1">
         <f t="shared" si="6"/>
         <v>0.97814760073380569</v>
       </c>
@@ -2580,11 +2580,11 @@
         <f t="shared" si="5"/>
         <v>1.7976891295541595</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="1">
         <f t="shared" si="4"/>
         <v>-0.22495105434386503</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="1">
         <f t="shared" si="6"/>
         <v>0.97437006478523525</v>
       </c>
@@ -2597,11 +2597,11 @@
         <f t="shared" si="5"/>
         <v>1.8151424220741028</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="1">
         <f t="shared" si="4"/>
         <v>-0.24192189559966779</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="1">
         <f t="shared" si="6"/>
         <v>0.97029572627599647</v>
       </c>
@@ -2614,11 +2614,11 @@
         <f t="shared" si="5"/>
         <v>1.8325957145940461</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="1">
         <f t="shared" si="4"/>
         <v>-0.25881904510252085</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="1">
         <f t="shared" si="6"/>
         <v>0.96592582628906831</v>
       </c>
@@ -2631,11 +2631,11 @@
         <f t="shared" si="5"/>
         <v>1.8500490071139892</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="1">
         <f t="shared" si="4"/>
         <v>-0.27563735581699905</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="1">
         <f t="shared" si="6"/>
         <v>0.96126169593831889</v>
       </c>
@@ -2648,11 +2648,11 @@
         <f t="shared" si="5"/>
         <v>1.8675022996339325</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="1">
         <f t="shared" si="4"/>
         <v>-0.29237170472273666</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="1">
         <f t="shared" si="6"/>
         <v>0.95630475596303555</v>
       </c>
@@ -2665,11 +2665,11 @@
         <f t="shared" si="5"/>
         <v>1.8849555921538759</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="1">
         <f t="shared" si="4"/>
         <v>-0.30901699437494734</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="1">
         <f t="shared" si="6"/>
         <v>0.95105651629515364</v>
       </c>
@@ -2682,11 +2682,11 @@
         <f t="shared" si="5"/>
         <v>1.9024088846738192</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="1">
         <f t="shared" si="4"/>
         <v>-0.32556815445715664</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="1">
         <f t="shared" si="6"/>
         <v>0.94551857559931685</v>
       </c>
@@ -2699,11 +2699,11 @@
         <f t="shared" si="5"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="1">
         <f t="shared" si="4"/>
         <v>-0.34202014332566871</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="1">
         <f t="shared" si="6"/>
         <v>0.93969262078590843</v>
       </c>
@@ -2716,11 +2716,11 @@
         <f t="shared" si="5"/>
         <v>1.9373154697137058</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="1">
         <f t="shared" si="4"/>
         <v>-0.35836794954530027</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="1">
         <f t="shared" si="6"/>
         <v>0.93358042649720174</v>
       </c>
@@ -2733,11 +2733,11 @@
         <f t="shared" si="5"/>
         <v>1.9547687622336491</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="1">
         <f t="shared" si="4"/>
         <v>-0.37460659341591207</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="1">
         <f t="shared" si="6"/>
         <v>0.92718385456678742</v>
       </c>
@@ -2750,11 +2750,11 @@
         <f t="shared" si="5"/>
         <v>1.9722220547535925</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="1">
         <f t="shared" si="4"/>
         <v>-0.39073112848927377</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="1">
         <f t="shared" si="6"/>
         <v>0.92050485345244026</v>
       </c>
@@ -2767,11 +2767,11 @@
         <f t="shared" si="5"/>
         <v>1.9896753472735358</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <f t="shared" si="4"/>
         <v>-0.40673664307580026</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="1">
         <f t="shared" si="6"/>
         <v>0.91354545764260087</v>
       </c>
@@ -2784,11 +2784,11 @@
         <f t="shared" si="5"/>
         <v>2.0071286397934789</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="1">
         <f t="shared" si="4"/>
         <v>-0.42261826174069933</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="1">
         <f t="shared" si="6"/>
         <v>0.90630778703665005</v>
       </c>
@@ -2801,11 +2801,11 @@
         <f t="shared" si="5"/>
         <v>2.0245819323134224</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="1">
         <f t="shared" si="4"/>
         <v>-0.43837114678907751</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="1">
         <f t="shared" si="6"/>
         <v>0.89879404629916693</v>
       </c>
@@ -2818,11 +2818,11 @@
         <f t="shared" si="5"/>
         <v>2.0420352248333655</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="1">
         <f t="shared" si="4"/>
         <v>-0.45399049973954669</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="1">
         <f t="shared" si="6"/>
         <v>0.8910065241883679</v>
       </c>
@@ -2835,11 +2835,11 @@
         <f t="shared" si="5"/>
         <v>2.0594885173533091</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="1">
         <f t="shared" si="4"/>
         <v>-0.46947156278589092</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="1">
         <f t="shared" si="6"/>
         <v>0.88294759285892688</v>
       </c>
@@ -2852,11 +2852,11 @@
         <f t="shared" si="5"/>
         <v>2.0769418098732522</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="1">
         <f t="shared" si="4"/>
         <v>-0.484809620246337</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="1">
         <f t="shared" si="6"/>
         <v>0.87461970713939585</v>
       </c>
@@ -2869,11 +2869,11 @@
         <f t="shared" si="5"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="1">
         <f t="shared" si="4"/>
         <v>-0.49999999999999978</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="1">
         <f t="shared" si="6"/>
         <v>0.86602540378443871</v>
       </c>
@@ -2886,11 +2886,11 @@
         <f t="shared" si="5"/>
         <v>2.1118483949131388</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="1">
         <f t="shared" si="4"/>
         <v>-0.51503807491005427</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="1">
         <f t="shared" si="6"/>
         <v>0.85716730070211233</v>
       </c>
@@ -2903,11 +2903,11 @@
         <f t="shared" si="5"/>
         <v>2.1293016874330819</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="1">
         <f t="shared" si="4"/>
         <v>-0.52991926423320479</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="1">
         <f t="shared" si="6"/>
         <v>0.84804809615642607</v>
       </c>
@@ -2920,11 +2920,11 @@
         <f t="shared" si="5"/>
         <v>2.1467549799530254</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="1">
         <f t="shared" si="4"/>
         <v>-0.54463903501502708</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="1">
         <f t="shared" si="6"/>
         <v>0.83867056794542394</v>
       </c>
@@ -2937,11 +2937,11 @@
         <f t="shared" si="5"/>
         <v>2.1642082724729685</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="1">
         <f t="shared" si="4"/>
         <v>-0.55919290347074668</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="1">
         <f t="shared" si="6"/>
         <v>0.82903757255504174</v>
       </c>
@@ -2954,11 +2954,11 @@
         <f t="shared" si="5"/>
         <v>2.1816615649929121</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="1">
         <f t="shared" si="4"/>
         <v>-0.57357643635104616</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="1">
         <f t="shared" si="6"/>
         <v>0.81915204428899169</v>
       </c>
@@ -2971,11 +2971,11 @@
         <f t="shared" si="5"/>
         <v>2.1991148575128552</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="1">
         <f t="shared" si="4"/>
         <v>-0.58778525229247303</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="1">
         <f t="shared" si="6"/>
         <v>0.80901699437494745</v>
       </c>
@@ -2988,11 +2988,11 @@
         <f t="shared" si="5"/>
         <v>2.2165681500327987</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="1">
         <f t="shared" si="4"/>
         <v>-0.60181502315204838</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="1">
         <f t="shared" si="6"/>
         <v>0.79863551004729272</v>
       </c>
@@ -3005,11 +3005,11 @@
         <f t="shared" si="5"/>
         <v>2.2340214425527418</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="1">
         <f t="shared" ref="C129:C192" si="9">COS(RADIANS(A129))</f>
         <v>-0.61566147532565829</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="1">
         <f t="shared" si="6"/>
         <v>0.78801075360672201</v>
       </c>
@@ -3022,11 +3022,11 @@
         <f t="shared" ref="B130:B193" si="10">RADIANS(A130)</f>
         <v>2.2514747350726849</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="1">
         <f t="shared" si="9"/>
         <v>-0.62932039104983728</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="1">
         <f t="shared" ref="D130:D193" si="11">SIN(RADIANS(A130))</f>
         <v>0.77714596145697101</v>
       </c>
@@ -3039,11 +3039,11 @@
         <f t="shared" si="10"/>
         <v>2.2689280275926285</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="1">
         <f t="shared" si="9"/>
         <v>-0.64278760968653936</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="1">
         <f t="shared" si="11"/>
         <v>0.76604444311897801</v>
       </c>
@@ -3056,11 +3056,11 @@
         <f t="shared" si="10"/>
         <v>2.2863813201125716</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="1">
         <f t="shared" si="9"/>
         <v>-0.65605902899050716</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="1">
         <f t="shared" si="11"/>
         <v>0.75470958022277213</v>
       </c>
@@ -3073,11 +3073,11 @@
         <f t="shared" si="10"/>
         <v>2.3038346126325151</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="1">
         <f t="shared" si="9"/>
         <v>-0.66913060635885824</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="1">
         <f t="shared" si="11"/>
         <v>0.74314482547739424</v>
       </c>
@@ -3090,11 +3090,11 @@
         <f t="shared" si="10"/>
         <v>2.3212879051524582</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="1">
         <f t="shared" si="9"/>
         <v>-0.68199836006249837</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="1">
         <f t="shared" si="11"/>
         <v>0.73135370161917057</v>
       </c>
@@ -3107,11 +3107,11 @@
         <f t="shared" si="10"/>
         <v>2.3387411976724017</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="1">
         <f t="shared" si="9"/>
         <v>-0.69465837045899737</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="1">
         <f t="shared" si="11"/>
         <v>0.71933980033865108</v>
       </c>
@@ -3124,11 +3124,11 @@
         <f t="shared" si="10"/>
         <v>2.3561944901923448</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1">
         <f t="shared" si="9"/>
         <v>-0.70710678118654746</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="1">
         <f t="shared" si="11"/>
         <v>0.70710678118654757</v>
       </c>
@@ -3141,11 +3141,11 @@
         <f t="shared" si="10"/>
         <v>2.3736477827122884</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="1">
         <f t="shared" si="9"/>
         <v>-0.71933980033865119</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="1">
         <f t="shared" si="11"/>
         <v>0.69465837045899714</v>
       </c>
@@ -3158,11 +3158,11 @@
         <f t="shared" si="10"/>
         <v>2.3911010752322315</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="1">
         <f t="shared" si="9"/>
         <v>-0.73135370161917046</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="1">
         <f t="shared" si="11"/>
         <v>0.68199836006249859</v>
       </c>
@@ -3175,11 +3175,11 @@
         <f t="shared" si="10"/>
         <v>2.4085543677521746</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="1">
         <f t="shared" si="9"/>
         <v>-0.74314482547739402</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="1">
         <f t="shared" si="11"/>
         <v>0.66913060635885835</v>
       </c>
@@ -3192,11 +3192,11 @@
         <f t="shared" si="10"/>
         <v>2.4260076602721181</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="1">
         <f t="shared" si="9"/>
         <v>-0.75470958022277201</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="1">
         <f t="shared" si="11"/>
         <v>0.65605902899050728</v>
       </c>
@@ -3209,11 +3209,11 @@
         <f t="shared" si="10"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="1">
         <f t="shared" si="9"/>
         <v>-0.7660444431189779</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="1">
         <f t="shared" si="11"/>
         <v>0.64278760968653947</v>
       </c>
@@ -3226,11 +3226,11 @@
         <f t="shared" si="10"/>
         <v>2.4609142453120048</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="1">
         <f t="shared" si="9"/>
         <v>-0.7771459614569709</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="1">
         <f t="shared" si="11"/>
         <v>0.62932039104983739</v>
       </c>
@@ -3243,11 +3243,11 @@
         <f t="shared" si="10"/>
         <v>2.4783675378319479</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="1">
         <f t="shared" si="9"/>
         <v>-0.7880107536067219</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="1">
         <f t="shared" si="11"/>
         <v>0.6156614753256584</v>
       </c>
@@ -3260,11 +3260,11 @@
         <f t="shared" si="10"/>
         <v>2.4958208303518914</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="1">
         <f t="shared" si="9"/>
         <v>-0.79863551004729294</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="1">
         <f t="shared" si="11"/>
         <v>0.60181502315204816</v>
       </c>
@@ -3277,11 +3277,11 @@
         <f t="shared" si="10"/>
         <v>2.5132741228718345</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="1">
         <f t="shared" si="9"/>
         <v>-0.80901699437494734</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="1">
         <f t="shared" si="11"/>
         <v>0.58778525229247325</v>
       </c>
@@ -3294,11 +3294,11 @@
         <f t="shared" si="10"/>
         <v>2.530727415391778</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="1">
         <f t="shared" si="9"/>
         <v>-0.81915204428899191</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="1">
         <f t="shared" si="11"/>
         <v>0.57357643635104594</v>
       </c>
@@ -3311,11 +3311,11 @@
         <f t="shared" si="10"/>
         <v>2.5481807079117211</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="1">
         <f t="shared" si="9"/>
         <v>-0.82903757255504162</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="1">
         <f t="shared" si="11"/>
         <v>0.5591929034707469</v>
       </c>
@@ -3328,11 +3328,11 @@
         <f t="shared" si="10"/>
         <v>2.5656340004316642</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="1">
         <f t="shared" si="9"/>
         <v>-0.83867056794542394</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="1">
         <f t="shared" si="11"/>
         <v>0.54463903501502731</v>
       </c>
@@ -3345,11 +3345,11 @@
         <f t="shared" si="10"/>
         <v>2.5830872929516078</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="1">
         <f t="shared" si="9"/>
         <v>-0.84804809615642596</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="1">
         <f t="shared" si="11"/>
         <v>0.5299192642332049</v>
       </c>
@@ -3362,11 +3362,11 @@
         <f t="shared" si="10"/>
         <v>2.6005405854715509</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="1">
         <f t="shared" si="9"/>
         <v>-0.85716730070211222</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="1">
         <f t="shared" si="11"/>
         <v>0.51503807491005438</v>
       </c>
@@ -3379,11 +3379,11 @@
         <f t="shared" si="10"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="1">
         <f t="shared" si="9"/>
         <v>-0.86602540378443871</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="1">
         <f t="shared" si="11"/>
         <v>0.49999999999999994</v>
       </c>
@@ -3396,11 +3396,11 @@
         <f t="shared" si="10"/>
         <v>2.6354471705114375</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="1">
         <f t="shared" si="9"/>
         <v>-0.87461970713939574</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="1">
         <f t="shared" si="11"/>
         <v>0.48480962024633717</v>
       </c>
@@ -3413,11 +3413,11 @@
         <f t="shared" si="10"/>
         <v>2.6529004630313811</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="1">
         <f t="shared" si="9"/>
         <v>-0.88294759285892699</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="1">
         <f t="shared" si="11"/>
         <v>0.46947156278589069</v>
       </c>
@@ -3430,11 +3430,11 @@
         <f t="shared" si="10"/>
         <v>2.6703537555513241</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="1">
         <f t="shared" si="9"/>
         <v>-0.89100652418836779</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="1">
         <f t="shared" si="11"/>
         <v>0.45399049973954686</v>
       </c>
@@ -3447,11 +3447,11 @@
         <f t="shared" si="10"/>
         <v>2.6878070480712677</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="1">
         <f t="shared" si="9"/>
         <v>-0.89879404629916704</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="1">
         <f t="shared" si="11"/>
         <v>0.43837114678907729</v>
       </c>
@@ -3464,11 +3464,11 @@
         <f t="shared" si="10"/>
         <v>2.7052603405912108</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="1">
         <f t="shared" si="9"/>
         <v>-0.90630778703664994</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="1">
         <f t="shared" si="11"/>
         <v>0.4226182617406995</v>
       </c>
@@ -3481,11 +3481,11 @@
         <f t="shared" si="10"/>
         <v>2.7227136331111539</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="1">
         <f t="shared" si="9"/>
         <v>-0.91354545764260076</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="1">
         <f t="shared" si="11"/>
         <v>0.40673664307580043</v>
       </c>
@@ -3498,11 +3498,11 @@
         <f t="shared" si="10"/>
         <v>2.7401669256310974</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="1">
         <f t="shared" si="9"/>
         <v>-0.92050485345244037</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="1">
         <f t="shared" si="11"/>
         <v>0.39073112848927377</v>
       </c>
@@ -3515,11 +3515,11 @@
         <f t="shared" si="10"/>
         <v>2.7576202181510405</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="1">
         <f t="shared" si="9"/>
         <v>-0.92718385456678731</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="1">
         <f t="shared" si="11"/>
         <v>0.37460659341591224</v>
       </c>
@@ -3532,11 +3532,11 @@
         <f t="shared" si="10"/>
         <v>2.7750735106709841</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="1">
         <f t="shared" si="9"/>
         <v>-0.93358042649720174</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="1">
         <f t="shared" si="11"/>
         <v>0.35836794954530021</v>
       </c>
@@ -3549,11 +3549,11 @@
         <f t="shared" si="10"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="1">
         <f t="shared" si="9"/>
         <v>-0.93969262078590832</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="1">
         <f t="shared" si="11"/>
         <v>0.34202014332566888</v>
       </c>
@@ -3566,11 +3566,11 @@
         <f t="shared" si="10"/>
         <v>2.8099800957108707</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="1">
         <f t="shared" si="9"/>
         <v>-0.94551857559931685</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="1">
         <f t="shared" si="11"/>
         <v>0.32556815445715659</v>
       </c>
@@ -3583,11 +3583,11 @@
         <f t="shared" si="10"/>
         <v>2.8274333882308138</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="1">
         <f t="shared" si="9"/>
         <v>-0.95105651629515353</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="1">
         <f t="shared" si="11"/>
         <v>0.30901699437494751</v>
       </c>
@@ -3600,11 +3600,11 @@
         <f t="shared" si="10"/>
         <v>2.8448866807507573</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="1">
         <f t="shared" si="9"/>
         <v>-0.95630475596303555</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="1">
         <f t="shared" si="11"/>
         <v>0.2923717047227366</v>
       </c>
@@ -3617,11 +3617,11 @@
         <f t="shared" si="10"/>
         <v>2.8623399732707004</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="1">
         <f t="shared" si="9"/>
         <v>-0.96126169593831889</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="1">
         <f t="shared" si="11"/>
         <v>0.27563735581699922</v>
       </c>
@@ -3634,11 +3634,11 @@
         <f t="shared" si="10"/>
         <v>2.8797932657906435</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="1">
         <f t="shared" si="9"/>
         <v>-0.9659258262890682</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="1">
         <f t="shared" si="11"/>
         <v>0.25881904510252102</v>
       </c>
@@ -3651,11 +3651,11 @@
         <f t="shared" si="10"/>
         <v>2.8972465583105871</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="1">
         <f t="shared" si="9"/>
         <v>-0.97029572627599647</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="1">
         <f t="shared" si="11"/>
         <v>0.24192189559966773</v>
       </c>
@@ -3668,11 +3668,11 @@
         <f t="shared" si="10"/>
         <v>2.9146998508305302</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="1">
         <f t="shared" si="9"/>
         <v>-0.97437006478523513</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="1">
         <f t="shared" si="11"/>
         <v>0.2249510543438652</v>
       </c>
@@ -3685,11 +3685,11 @@
         <f t="shared" si="10"/>
         <v>2.9321531433504737</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="1">
         <f t="shared" si="9"/>
         <v>-0.97814760073380569</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="1">
         <f t="shared" si="11"/>
         <v>0.20791169081775931</v>
       </c>
@@ -3702,11 +3702,11 @@
         <f t="shared" si="10"/>
         <v>2.9496064358704168</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="1">
         <f t="shared" si="9"/>
         <v>-0.98162718344766398</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="1">
         <f t="shared" si="11"/>
         <v>0.19080899537654497</v>
       </c>
@@ -3719,11 +3719,11 @@
         <f t="shared" si="10"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="1">
         <f t="shared" si="9"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="1">
         <f t="shared" si="11"/>
         <v>0.17364817766693028</v>
       </c>
@@ -3736,11 +3736,11 @@
         <f t="shared" si="10"/>
         <v>2.9845130209103035</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="1">
         <f t="shared" si="9"/>
         <v>-0.98768834059513766</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="1">
         <f t="shared" si="11"/>
         <v>0.15643446504023098</v>
       </c>
@@ -3753,11 +3753,11 @@
         <f t="shared" si="10"/>
         <v>3.001966313430247</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="1">
         <f t="shared" si="9"/>
         <v>-0.99026806874157036</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="1">
         <f t="shared" si="11"/>
         <v>0.13917310096006533</v>
       </c>
@@ -3770,11 +3770,11 @@
         <f t="shared" si="10"/>
         <v>3.0194196059501901</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="1">
         <f t="shared" si="9"/>
         <v>-0.99254615164132198</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="1">
         <f t="shared" si="11"/>
         <v>0.12186934340514755</v>
       </c>
@@ -3787,11 +3787,11 @@
         <f t="shared" si="10"/>
         <v>3.0368728984701332</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="1">
         <f t="shared" si="9"/>
         <v>-0.99452189536827329</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="1">
         <f t="shared" si="11"/>
         <v>0.10452846326765373</v>
       </c>
@@ -3804,11 +3804,11 @@
         <f t="shared" si="10"/>
         <v>3.0543261909900767</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="1">
         <f t="shared" si="9"/>
         <v>-0.99619469809174555</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="1">
         <f t="shared" si="11"/>
         <v>8.7155742747658194E-2</v>
       </c>
@@ -3821,11 +3821,11 @@
         <f t="shared" si="10"/>
         <v>3.0717794835100198</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="1">
         <f t="shared" si="9"/>
         <v>-0.9975640502598242</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="1">
         <f t="shared" si="11"/>
         <v>6.9756473744125524E-2</v>
       </c>
@@ -3838,11 +3838,11 @@
         <f t="shared" si="10"/>
         <v>3.0892327760299634</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="1">
         <f t="shared" si="9"/>
         <v>-0.99862953475457383</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="1">
         <f t="shared" si="11"/>
         <v>5.2335956242943807E-2</v>
       </c>
@@ -3855,11 +3855,11 @@
         <f t="shared" si="10"/>
         <v>3.1066860685499065</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="1">
         <f t="shared" si="9"/>
         <v>-0.99939082701909576</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="1">
         <f t="shared" si="11"/>
         <v>3.4899496702501143E-2</v>
       </c>
@@ -3872,11 +3872,11 @@
         <f t="shared" si="10"/>
         <v>3.12413936106985</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="1">
         <f t="shared" si="9"/>
         <v>-0.99984769515639127</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="1">
         <f t="shared" si="11"/>
         <v>1.7452406437283439E-2</v>
       </c>
@@ -3889,11 +3889,11 @@
         <f t="shared" si="10"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="1">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="1">
         <f t="shared" si="11"/>
         <v>1.22514845490862E-16</v>
       </c>
@@ -3906,11 +3906,11 @@
         <f t="shared" si="10"/>
         <v>3.1590459461097367</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="1">
         <f t="shared" si="9"/>
         <v>-0.99984769515639127</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="1">
         <f t="shared" si="11"/>
         <v>-1.7452406437283637E-2</v>
       </c>
@@ -3923,11 +3923,11 @@
         <f t="shared" si="10"/>
         <v>3.1764992386296798</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="1">
         <f t="shared" si="9"/>
         <v>-0.99939082701909576</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="1">
         <f t="shared" si="11"/>
         <v>-3.48994967025009E-2</v>
       </c>
@@ -3940,11 +3940,11 @@
         <f t="shared" si="10"/>
         <v>3.1939525311496229</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="1">
         <f t="shared" si="9"/>
         <v>-0.99862953475457383</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="1">
         <f t="shared" si="11"/>
         <v>-5.2335956242943557E-2</v>
       </c>
@@ -3957,11 +3957,11 @@
         <f t="shared" si="10"/>
         <v>3.2114058236695664</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="1">
         <f t="shared" si="9"/>
         <v>-0.9975640502598242</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="1">
         <f t="shared" si="11"/>
         <v>-6.9756473744125275E-2</v>
       </c>
@@ -3974,11 +3974,11 @@
         <f t="shared" si="10"/>
         <v>3.2288591161895095</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="1">
         <f t="shared" si="9"/>
         <v>-0.99619469809174555</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="1">
         <f t="shared" si="11"/>
         <v>-8.7155742747657944E-2</v>
       </c>
@@ -3991,11 +3991,11 @@
         <f t="shared" si="10"/>
         <v>3.246312408709453</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="1">
         <f t="shared" si="9"/>
         <v>-0.99452189536827329</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="1">
         <f t="shared" si="11"/>
         <v>-0.1045284632676535</v>
       </c>
@@ -4008,11 +4008,11 @@
         <f t="shared" si="10"/>
         <v>3.2637657012293961</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="1">
         <f t="shared" si="9"/>
         <v>-0.99254615164132209</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="1">
         <f t="shared" si="11"/>
         <v>-0.12186934340514731</v>
       </c>
@@ -4025,11 +4025,11 @@
         <f t="shared" si="10"/>
         <v>3.2812189937493397</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="1">
         <f t="shared" si="9"/>
         <v>-0.99026806874157025</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="1">
         <f t="shared" si="11"/>
         <v>-0.13917310096006552</v>
       </c>
@@ -4042,11 +4042,11 @@
         <f t="shared" si="10"/>
         <v>3.2986722862692828</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="1">
         <f t="shared" si="9"/>
         <v>-0.98768834059513777</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="1">
         <f t="shared" si="11"/>
         <v>-0.15643446504023073</v>
       </c>
@@ -4059,11 +4059,11 @@
         <f t="shared" si="10"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="1">
         <f t="shared" si="9"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="1">
         <f t="shared" si="11"/>
         <v>-0.17364817766693047</v>
       </c>
@@ -4076,11 +4076,11 @@
         <f t="shared" si="10"/>
         <v>3.3335788713091694</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="1">
         <f t="shared" si="9"/>
         <v>-0.98162718344766398</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="1">
         <f t="shared" si="11"/>
         <v>-0.19080899537654472</v>
       </c>
@@ -4093,11 +4093,11 @@
         <f t="shared" si="10"/>
         <v>3.351032163829113</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="1">
         <f t="shared" ref="C193:C256" si="12">COS(RADIANS(A193))</f>
         <v>-0.97814760073380558</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="1">
         <f t="shared" si="11"/>
         <v>-0.20791169081775951</v>
       </c>
@@ -4110,11 +4110,11 @@
         <f t="shared" ref="B194:B257" si="13">RADIANS(A194)</f>
         <v>3.3684854563490561</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="1">
         <f t="shared" si="12"/>
         <v>-0.97437006478523525</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="1">
         <f t="shared" ref="D194:D257" si="14">SIN(RADIANS(A194))</f>
         <v>-0.22495105434386498</v>
       </c>
@@ -4127,11 +4127,11 @@
         <f t="shared" si="13"/>
         <v>3.3859387488689991</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="1">
         <f t="shared" si="12"/>
         <v>-0.97029572627599647</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="1">
         <f t="shared" si="14"/>
         <v>-0.24192189559966751</v>
       </c>
@@ -4144,11 +4144,11 @@
         <f t="shared" si="13"/>
         <v>3.4033920413889427</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="1">
         <f t="shared" si="12"/>
         <v>-0.96592582628906831</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="1">
         <f t="shared" si="14"/>
         <v>-0.25881904510252079</v>
       </c>
@@ -4161,11 +4161,11 @@
         <f t="shared" si="13"/>
         <v>3.4208453339088858</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="1">
         <f t="shared" si="12"/>
         <v>-0.96126169593831889</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="1">
         <f t="shared" si="14"/>
         <v>-0.275637355816999</v>
       </c>
@@ -4178,11 +4178,11 @@
         <f t="shared" si="13"/>
         <v>3.4382986264288293</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="1">
         <f t="shared" si="12"/>
         <v>-0.95630475596303544</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="1">
         <f t="shared" si="14"/>
         <v>-0.29237170472273677</v>
       </c>
@@ -4195,11 +4195,11 @@
         <f t="shared" si="13"/>
         <v>3.4557519189487724</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="1">
         <f t="shared" si="12"/>
         <v>-0.95105651629515364</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="1">
         <f t="shared" si="14"/>
         <v>-0.30901699437494728</v>
       </c>
@@ -4212,11 +4212,11 @@
         <f t="shared" si="13"/>
         <v>3.473205211468716</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="1">
         <f t="shared" si="12"/>
         <v>-0.94551857559931674</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="1">
         <f t="shared" si="14"/>
         <v>-0.32556815445715676</v>
       </c>
@@ -4229,11 +4229,11 @@
         <f t="shared" si="13"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="1">
         <f t="shared" si="12"/>
         <v>-0.93969262078590843</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="1">
         <f t="shared" si="14"/>
         <v>-0.34202014332566866</v>
       </c>
@@ -4246,11 +4246,11 @@
         <f t="shared" si="13"/>
         <v>3.5081117965086026</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="1">
         <f t="shared" si="12"/>
         <v>-0.93358042649720174</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="1">
         <f t="shared" si="14"/>
         <v>-0.35836794954530043</v>
       </c>
@@ -4263,11 +4263,11 @@
         <f t="shared" si="13"/>
         <v>3.5255650890285457</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="1">
         <f t="shared" si="12"/>
         <v>-0.92718385456678742</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="1">
         <f t="shared" si="14"/>
         <v>-0.37460659341591201</v>
       </c>
@@ -4280,11 +4280,11 @@
         <f t="shared" si="13"/>
         <v>3.5430183815484888</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="1">
         <f t="shared" si="12"/>
         <v>-0.92050485345244037</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="1">
         <f t="shared" si="14"/>
         <v>-0.39073112848927355</v>
       </c>
@@ -4297,11 +4297,11 @@
         <f t="shared" si="13"/>
         <v>3.5604716740684323</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="1">
         <f t="shared" si="12"/>
         <v>-0.91354545764260087</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="1">
         <f t="shared" si="14"/>
         <v>-0.40673664307580021</v>
       </c>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="13"/>
         <v>3.5779249665883754</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="1">
         <f t="shared" si="12"/>
         <v>-0.90630778703665005</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="1">
         <f t="shared" si="14"/>
         <v>-0.42261826174069927</v>
       </c>
@@ -4331,11 +4331,11 @@
         <f t="shared" si="13"/>
         <v>3.595378259108319</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="1">
         <f t="shared" si="12"/>
         <v>-0.89879404629916693</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="1">
         <f t="shared" si="14"/>
         <v>-0.43837114678907746</v>
       </c>
@@ -4348,11 +4348,11 @@
         <f t="shared" si="13"/>
         <v>3.6128315516282621</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="1">
         <f t="shared" si="12"/>
         <v>-0.8910065241883679</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="1">
         <f t="shared" si="14"/>
         <v>-0.45399049973954669</v>
       </c>
@@ -4365,11 +4365,11 @@
         <f t="shared" si="13"/>
         <v>3.6302848441482056</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="1">
         <f t="shared" si="12"/>
         <v>-0.88294759285892688</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="1">
         <f t="shared" si="14"/>
         <v>-0.46947156278589086</v>
       </c>
@@ -4382,11 +4382,11 @@
         <f t="shared" si="13"/>
         <v>3.6477381366681487</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="1">
         <f t="shared" si="12"/>
         <v>-0.87461970713939585</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="1">
         <f t="shared" si="14"/>
         <v>-0.48480962024633695</v>
       </c>
@@ -4399,11 +4399,11 @@
         <f t="shared" si="13"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="1">
         <f t="shared" si="12"/>
         <v>-0.8660254037844386</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="1">
         <f t="shared" si="14"/>
         <v>-0.50000000000000011</v>
       </c>
@@ -4416,11 +4416,11 @@
         <f t="shared" si="13"/>
         <v>3.6826447217080354</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="1">
         <f t="shared" si="12"/>
         <v>-0.85716730070211233</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="1">
         <f t="shared" si="14"/>
         <v>-0.51503807491005416</v>
       </c>
@@ -4433,11 +4433,11 @@
         <f t="shared" si="13"/>
         <v>3.7000980142279785</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="1">
         <f t="shared" si="12"/>
         <v>-0.84804809615642607</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="1">
         <f t="shared" si="14"/>
         <v>-0.52991926423320479</v>
       </c>
@@ -4450,11 +4450,11 @@
         <f t="shared" si="13"/>
         <v>3.717551306747922</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="1">
         <f t="shared" si="12"/>
         <v>-0.83867056794542405</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="1">
         <f t="shared" si="14"/>
         <v>-0.54463903501502708</v>
       </c>
@@ -4467,11 +4467,11 @@
         <f t="shared" si="13"/>
         <v>3.7350045992678651</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="1">
         <f t="shared" si="12"/>
         <v>-0.82903757255504185</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="1">
         <f t="shared" si="14"/>
         <v>-0.55919290347074668</v>
       </c>
@@ -4484,11 +4484,11 @@
         <f t="shared" si="13"/>
         <v>3.7524578917878086</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="1">
         <f t="shared" si="12"/>
         <v>-0.8191520442889918</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="1">
         <f t="shared" si="14"/>
         <v>-0.57357643635104616</v>
       </c>
@@ -4501,11 +4501,11 @@
         <f t="shared" si="13"/>
         <v>3.7699111843077517</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="1">
         <f t="shared" si="12"/>
         <v>-0.80901699437494756</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="1">
         <f t="shared" si="14"/>
         <v>-0.58778525229247303</v>
       </c>
@@ -4518,11 +4518,11 @@
         <f t="shared" si="13"/>
         <v>3.7873644768276953</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="1">
         <f t="shared" si="12"/>
         <v>-0.79863551004729283</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="1">
         <f t="shared" si="14"/>
         <v>-0.60181502315204838</v>
       </c>
@@ -4535,11 +4535,11 @@
         <f t="shared" si="13"/>
         <v>3.8048177693476384</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="1">
         <f t="shared" si="12"/>
         <v>-0.78801075360672201</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="1">
         <f t="shared" si="14"/>
         <v>-0.61566147532565818</v>
       </c>
@@ -4552,11 +4552,11 @@
         <f t="shared" si="13"/>
         <v>3.8222710618675819</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="1">
         <f t="shared" si="12"/>
         <v>-0.77714596145697079</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="1">
         <f t="shared" si="14"/>
         <v>-0.62932039104983761</v>
       </c>
@@ -4569,11 +4569,11 @@
         <f t="shared" si="13"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="1">
         <f t="shared" si="12"/>
         <v>-0.76604444311897801</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="1">
         <f t="shared" si="14"/>
         <v>-0.64278760968653925</v>
       </c>
@@ -4586,11 +4586,11 @@
         <f t="shared" si="13"/>
         <v>3.8571776469074681</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="1">
         <f t="shared" si="12"/>
         <v>-0.75470958022277213</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="1">
         <f t="shared" si="14"/>
         <v>-0.65605902899050705</v>
       </c>
@@ -4603,11 +4603,11 @@
         <f t="shared" si="13"/>
         <v>3.8746309394274117</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="1">
         <f t="shared" si="12"/>
         <v>-0.74314482547739424</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="1">
         <f t="shared" si="14"/>
         <v>-0.66913060635885824</v>
       </c>
@@ -4620,11 +4620,11 @@
         <f t="shared" si="13"/>
         <v>3.8920842319473548</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="1">
         <f t="shared" si="12"/>
         <v>-0.73135370161917057</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="1">
         <f t="shared" si="14"/>
         <v>-0.68199836006249837</v>
       </c>
@@ -4637,11 +4637,11 @@
         <f t="shared" si="13"/>
         <v>3.9095375244672983</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="1">
         <f t="shared" si="12"/>
         <v>-0.71933980033865108</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="1">
         <f t="shared" si="14"/>
         <v>-0.69465837045899737</v>
       </c>
@@ -4654,11 +4654,11 @@
         <f t="shared" si="13"/>
         <v>3.9269908169872414</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="1">
         <f t="shared" si="12"/>
         <v>-0.70710678118654768</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="1">
         <f t="shared" si="14"/>
         <v>-0.70710678118654746</v>
       </c>
@@ -4671,11 +4671,11 @@
         <f t="shared" si="13"/>
         <v>3.9444441095071849</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="1">
         <f t="shared" si="12"/>
         <v>-0.69465837045899725</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="1">
         <f t="shared" si="14"/>
         <v>-0.71933980033865119</v>
       </c>
@@ -4688,11 +4688,11 @@
         <f t="shared" si="13"/>
         <v>3.961897402027128</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="1">
         <f t="shared" si="12"/>
         <v>-0.68199836006249859</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="1">
         <f t="shared" si="14"/>
         <v>-0.73135370161917046</v>
       </c>
@@ -4705,11 +4705,11 @@
         <f t="shared" si="13"/>
         <v>3.9793506945470716</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="1">
         <f t="shared" si="12"/>
         <v>-0.66913060635885813</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="1">
         <f t="shared" si="14"/>
         <v>-0.74314482547739436</v>
       </c>
@@ -4722,11 +4722,11 @@
         <f t="shared" si="13"/>
         <v>3.9968039870670147</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="1">
         <f t="shared" si="12"/>
         <v>-0.65605902899050728</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="1">
         <f t="shared" si="14"/>
         <v>-0.75470958022277201</v>
       </c>
@@ -4739,11 +4739,11 @@
         <f t="shared" si="13"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="1">
         <f t="shared" si="12"/>
         <v>-0.64278760968653947</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="1">
         <f t="shared" si="14"/>
         <v>-0.7660444431189779</v>
       </c>
@@ -4756,11 +4756,11 @@
         <f t="shared" si="13"/>
         <v>4.0317105721069009</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="1">
         <f t="shared" si="12"/>
         <v>-0.62932039104983784</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="1">
         <f t="shared" si="14"/>
         <v>-0.77714596145697057</v>
       </c>
@@ -4773,11 +4773,11 @@
         <f t="shared" si="13"/>
         <v>4.0491638646268449</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="1">
         <f t="shared" si="12"/>
         <v>-0.61566147532565807</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="1">
         <f t="shared" si="14"/>
         <v>-0.78801075360672213</v>
       </c>
@@ -4790,11 +4790,11 @@
         <f t="shared" si="13"/>
         <v>4.066617157146788</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="1">
         <f t="shared" si="12"/>
         <v>-0.60181502315204827</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="1">
         <f t="shared" si="14"/>
         <v>-0.79863551004729283</v>
       </c>
@@ -4807,11 +4807,11 @@
         <f t="shared" si="13"/>
         <v>4.0840704496667311</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="1">
         <f t="shared" si="12"/>
         <v>-0.58778525229247325</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="1">
         <f t="shared" si="14"/>
         <v>-0.80901699437494734</v>
       </c>
@@ -4824,11 +4824,11 @@
         <f t="shared" si="13"/>
         <v>4.1015237421866741</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="1">
         <f t="shared" si="12"/>
         <v>-0.57357643635104638</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="1">
         <f t="shared" si="14"/>
         <v>-0.81915204428899158</v>
       </c>
@@ -4841,11 +4841,11 @@
         <f t="shared" si="13"/>
         <v>4.1189770347066181</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="1">
         <f t="shared" si="12"/>
         <v>-0.55919290347074657</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237" s="1">
         <f t="shared" si="14"/>
         <v>-0.82903757255504185</v>
       </c>
@@ -4858,11 +4858,11 @@
         <f t="shared" si="13"/>
         <v>4.1364303272265612</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="1">
         <f t="shared" si="12"/>
         <v>-0.54463903501502697</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238" s="1">
         <f t="shared" si="14"/>
         <v>-0.83867056794542405</v>
       </c>
@@ -4875,11 +4875,11 @@
         <f t="shared" si="13"/>
         <v>4.1538836197465043</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="1">
         <f t="shared" si="12"/>
         <v>-0.52991926423320501</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239" s="1">
         <f t="shared" si="14"/>
         <v>-0.84804809615642596</v>
       </c>
@@ -4892,11 +4892,11 @@
         <f t="shared" si="13"/>
         <v>4.1713369122664474</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="1">
         <f t="shared" si="12"/>
         <v>-0.51503807491005449</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240" s="1">
         <f t="shared" si="14"/>
         <v>-0.85716730070211211</v>
       </c>
@@ -4909,11 +4909,11 @@
         <f t="shared" si="13"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="1">
         <f t="shared" si="12"/>
         <v>-0.50000000000000044</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D241" s="1">
         <f t="shared" si="14"/>
         <v>-0.86602540378443837</v>
       </c>
@@ -4926,11 +4926,11 @@
         <f t="shared" si="13"/>
         <v>4.2062434973063345</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="1">
         <f t="shared" si="12"/>
         <v>-0.48480962024633684</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242" s="1">
         <f t="shared" si="14"/>
         <v>-0.87461970713939596</v>
       </c>
@@ -4943,11 +4943,11 @@
         <f t="shared" si="13"/>
         <v>4.2236967898262776</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="1">
         <f t="shared" si="12"/>
         <v>-0.46947156278589075</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243" s="1">
         <f t="shared" si="14"/>
         <v>-0.88294759285892699</v>
       </c>
@@ -4960,11 +4960,11 @@
         <f t="shared" si="13"/>
         <v>4.2411500823462207</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="1">
         <f t="shared" si="12"/>
         <v>-0.45399049973954692</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244" s="1">
         <f t="shared" si="14"/>
         <v>-0.89100652418836779</v>
       </c>
@@ -4977,11 +4977,11 @@
         <f t="shared" si="13"/>
         <v>4.2586033748661638</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="1">
         <f t="shared" si="12"/>
         <v>-0.43837114678907774</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245" s="1">
         <f t="shared" si="14"/>
         <v>-0.89879404629916682</v>
       </c>
@@ -4994,11 +4994,11 @@
         <f t="shared" si="13"/>
         <v>4.2760566673861078</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="1">
         <f t="shared" si="12"/>
         <v>-0.42261826174069916</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246" s="1">
         <f t="shared" si="14"/>
         <v>-0.90630778703665005</v>
       </c>
@@ -5011,11 +5011,11 @@
         <f t="shared" si="13"/>
         <v>4.2935099599060509</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="1">
         <f t="shared" si="12"/>
         <v>-0.4067366430758001</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247" s="1">
         <f t="shared" si="14"/>
         <v>-0.91354545764260098</v>
       </c>
@@ -5028,11 +5028,11 @@
         <f t="shared" si="13"/>
         <v>4.310963252425994</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="1">
         <f t="shared" si="12"/>
         <v>-0.39073112848927383</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248" s="1">
         <f t="shared" si="14"/>
         <v>-0.92050485345244026</v>
       </c>
@@ -5045,11 +5045,11 @@
         <f t="shared" si="13"/>
         <v>4.3284165449459371</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="1">
         <f t="shared" si="12"/>
         <v>-0.37460659341591229</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249" s="1">
         <f t="shared" si="14"/>
         <v>-0.92718385456678731</v>
       </c>
@@ -5062,11 +5062,11 @@
         <f t="shared" si="13"/>
         <v>4.3458698374658802</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="1">
         <f t="shared" si="12"/>
         <v>-0.35836794954530071</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250" s="1">
         <f t="shared" si="14"/>
         <v>-0.93358042649720163</v>
       </c>
@@ -5079,11 +5079,11 @@
         <f t="shared" si="13"/>
         <v>4.3633231299858242</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="1">
         <f t="shared" si="12"/>
         <v>-0.34202014332566855</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251" s="1">
         <f t="shared" si="14"/>
         <v>-0.93969262078590843</v>
       </c>
@@ -5096,11 +5096,11 @@
         <f t="shared" si="13"/>
         <v>4.3807764225057673</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="1">
         <f t="shared" si="12"/>
         <v>-0.32556815445715664</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252" s="1">
         <f t="shared" si="14"/>
         <v>-0.94551857559931685</v>
       </c>
@@ -5113,11 +5113,11 @@
         <f t="shared" si="13"/>
         <v>4.3982297150257104</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="1">
         <f t="shared" si="12"/>
         <v>-0.30901699437494756</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253" s="1">
         <f t="shared" si="14"/>
         <v>-0.95105651629515353</v>
       </c>
@@ -5130,11 +5130,11 @@
         <f t="shared" si="13"/>
         <v>4.4156830075456535</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="1">
         <f t="shared" si="12"/>
         <v>-0.2923717047227371</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254" s="1">
         <f t="shared" si="14"/>
         <v>-0.95630475596303532</v>
       </c>
@@ -5147,11 +5147,11 @@
         <f t="shared" si="13"/>
         <v>4.4331363000655974</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="1">
         <f t="shared" si="12"/>
         <v>-0.27563735581699889</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255" s="1">
         <f t="shared" si="14"/>
         <v>-0.96126169593831901</v>
       </c>
@@ -5164,11 +5164,11 @@
         <f t="shared" si="13"/>
         <v>4.4505895925855405</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="1">
         <f t="shared" si="12"/>
         <v>-0.25881904510252063</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256" s="1">
         <f t="shared" si="14"/>
         <v>-0.96592582628906831</v>
       </c>
@@ -5181,11 +5181,11 @@
         <f t="shared" si="13"/>
         <v>4.4680428851054836</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="1">
         <f t="shared" ref="C257:C320" si="15">COS(RADIANS(A257))</f>
         <v>-0.24192189559966779</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257" s="1">
         <f t="shared" si="14"/>
         <v>-0.97029572627599647</v>
       </c>
@@ -5198,11 +5198,11 @@
         <f t="shared" ref="B258:B321" si="16">RADIANS(A258)</f>
         <v>4.4854961776254267</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="1">
         <f t="shared" si="15"/>
         <v>-0.22495105434386525</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258" s="1">
         <f t="shared" ref="D258:D321" si="17">SIN(RADIANS(A258))</f>
         <v>-0.97437006478523513</v>
       </c>
@@ -5215,11 +5215,11 @@
         <f t="shared" si="16"/>
         <v>4.5029494701453698</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="1">
         <f t="shared" si="15"/>
         <v>-0.20791169081775979</v>
       </c>
-      <c r="D259" s="3">
+      <c r="D259" s="1">
         <f t="shared" si="17"/>
         <v>-0.97814760073380558</v>
       </c>
@@ -5232,11 +5232,11 @@
         <f t="shared" si="16"/>
         <v>4.5204027626653138</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="1">
         <f t="shared" si="15"/>
         <v>-0.19080899537654461</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260" s="1">
         <f t="shared" si="17"/>
         <v>-0.98162718344766398</v>
       </c>
@@ -5249,11 +5249,11 @@
         <f t="shared" si="16"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="1">
         <f t="shared" si="15"/>
         <v>-0.17364817766693033</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261" s="1">
         <f t="shared" si="17"/>
         <v>-0.98480775301220802</v>
       </c>
@@ -5266,11 +5266,11 @@
         <f t="shared" si="16"/>
         <v>4.5553093477052</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="1">
         <f t="shared" si="15"/>
         <v>-0.15643446504023104</v>
       </c>
-      <c r="D262" s="3">
+      <c r="D262" s="1">
         <f t="shared" si="17"/>
         <v>-0.98768834059513766</v>
       </c>
@@ -5283,11 +5283,11 @@
         <f t="shared" si="16"/>
         <v>4.5727626402251431</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="1">
         <f t="shared" si="15"/>
         <v>-0.13917310096006583</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D263" s="1">
         <f t="shared" si="17"/>
         <v>-0.99026806874157025</v>
       </c>
@@ -5300,11 +5300,11 @@
         <f t="shared" si="16"/>
         <v>4.5902159327450871</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="1">
         <f t="shared" si="15"/>
         <v>-0.12186934340514717</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D264" s="1">
         <f t="shared" si="17"/>
         <v>-0.99254615164132209</v>
       </c>
@@ -5317,11 +5317,11 @@
         <f t="shared" si="16"/>
         <v>4.6076692252650302</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="1">
         <f t="shared" si="15"/>
         <v>-0.10452846326765336</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D265" s="1">
         <f t="shared" si="17"/>
         <v>-0.9945218953682734</v>
       </c>
@@ -5334,11 +5334,11 @@
         <f t="shared" si="16"/>
         <v>4.6251225177849733</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="1">
         <f t="shared" si="15"/>
         <v>-8.7155742747658249E-2</v>
       </c>
-      <c r="D266" s="3">
+      <c r="D266" s="1">
         <f t="shared" si="17"/>
         <v>-0.99619469809174555</v>
       </c>
@@ -5351,11 +5351,11 @@
         <f t="shared" si="16"/>
         <v>4.6425758103049164</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="1">
         <f t="shared" si="15"/>
         <v>-6.975647374412558E-2</v>
       </c>
-      <c r="D267" s="3">
+      <c r="D267" s="1">
         <f t="shared" si="17"/>
         <v>-0.9975640502598242</v>
       </c>
@@ -5368,11 +5368,11 @@
         <f t="shared" si="16"/>
         <v>4.6600291028248595</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="1">
         <f t="shared" si="15"/>
         <v>-5.2335956242944306E-2</v>
       </c>
-      <c r="D268" s="3">
+      <c r="D268" s="1">
         <f t="shared" si="17"/>
         <v>-0.99862953475457383</v>
       </c>
@@ -5385,11 +5385,11 @@
         <f t="shared" si="16"/>
         <v>4.6774823953448035</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="1">
         <f t="shared" si="15"/>
         <v>-3.4899496702500761E-2</v>
       </c>
-      <c r="D269" s="3">
+      <c r="D269" s="1">
         <f t="shared" si="17"/>
         <v>-0.99939082701909576</v>
       </c>
@@ -5402,11 +5402,11 @@
         <f t="shared" si="16"/>
         <v>4.6949356878647466</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="1">
         <f t="shared" si="15"/>
         <v>-1.7452406437283498E-2</v>
       </c>
-      <c r="D270" s="3">
+      <c r="D270" s="1">
         <f t="shared" si="17"/>
         <v>-0.99984769515639127</v>
       </c>
@@ -5419,11 +5419,11 @@
         <f t="shared" si="16"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="1">
         <f t="shared" si="15"/>
         <v>-1.83772268236293E-16</v>
       </c>
-      <c r="D271" s="3">
+      <c r="D271" s="1">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
@@ -5436,11 +5436,11 @@
         <f t="shared" si="16"/>
         <v>4.7298422729046328</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="1">
         <f t="shared" si="15"/>
         <v>1.745240643728313E-2</v>
       </c>
-      <c r="D272" s="3">
+      <c r="D272" s="1">
         <f t="shared" si="17"/>
         <v>-0.99984769515639127</v>
       </c>
@@ -5453,11 +5453,11 @@
         <f t="shared" si="16"/>
         <v>4.7472955654245768</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="1">
         <f t="shared" si="15"/>
         <v>3.4899496702501281E-2</v>
       </c>
-      <c r="D273" s="3">
+      <c r="D273" s="1">
         <f t="shared" si="17"/>
         <v>-0.99939082701909576</v>
       </c>
@@ -5470,11 +5470,11 @@
         <f t="shared" si="16"/>
         <v>4.7647488579445199</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="1">
         <f t="shared" si="15"/>
         <v>5.2335956242943946E-2</v>
       </c>
-      <c r="D274" s="3">
+      <c r="D274" s="1">
         <f t="shared" si="17"/>
         <v>-0.99862953475457383</v>
       </c>
@@ -5487,11 +5487,11 @@
         <f t="shared" si="16"/>
         <v>4.782202150464463</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="1">
         <f t="shared" si="15"/>
         <v>6.9756473744125219E-2</v>
       </c>
-      <c r="D275" s="3">
+      <c r="D275" s="1">
         <f t="shared" si="17"/>
         <v>-0.99756405025982431</v>
       </c>
@@ -5504,11 +5504,11 @@
         <f t="shared" si="16"/>
         <v>4.7996554429844061</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="1">
         <f t="shared" si="15"/>
         <v>8.7155742747657888E-2</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D276" s="1">
         <f t="shared" si="17"/>
         <v>-0.99619469809174555</v>
       </c>
@@ -5521,11 +5521,11 @@
         <f t="shared" si="16"/>
         <v>4.8171087355043491</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="1">
         <f t="shared" si="15"/>
         <v>0.10452846326765299</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D277" s="1">
         <f t="shared" si="17"/>
         <v>-0.9945218953682734</v>
       </c>
@@ -5538,11 +5538,11 @@
         <f t="shared" si="16"/>
         <v>4.8345620280242931</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="1">
         <f t="shared" si="15"/>
         <v>0.12186934340514768</v>
       </c>
-      <c r="D278" s="3">
+      <c r="D278" s="1">
         <f t="shared" si="17"/>
         <v>-0.99254615164132198</v>
       </c>
@@ -5555,11 +5555,11 @@
         <f t="shared" si="16"/>
         <v>4.8520153205442362</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="1">
         <f t="shared" si="15"/>
         <v>0.13917310096006547</v>
       </c>
-      <c r="D279" s="3">
+      <c r="D279" s="1">
         <f t="shared" si="17"/>
         <v>-0.99026806874157036</v>
       </c>
@@ -5572,11 +5572,11 @@
         <f t="shared" si="16"/>
         <v>4.8694686130641793</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="1">
         <f t="shared" si="15"/>
         <v>0.15643446504023067</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D280" s="1">
         <f t="shared" si="17"/>
         <v>-0.98768834059513777</v>
       </c>
@@ -5589,11 +5589,11 @@
         <f t="shared" si="16"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="1">
         <f t="shared" si="15"/>
         <v>0.17364817766692997</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281" s="1">
         <f t="shared" si="17"/>
         <v>-0.98480775301220813</v>
       </c>
@@ -5606,11 +5606,11 @@
         <f t="shared" si="16"/>
         <v>4.9043751981040664</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="1">
         <f t="shared" si="15"/>
         <v>0.19080899537654511</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D282" s="1">
         <f t="shared" si="17"/>
         <v>-0.98162718344766386</v>
       </c>
@@ -5623,11 +5623,11 @@
         <f t="shared" si="16"/>
         <v>4.9218284906240095</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="1">
         <f t="shared" si="15"/>
         <v>0.20791169081775943</v>
       </c>
-      <c r="D283" s="3">
+      <c r="D283" s="1">
         <f t="shared" si="17"/>
         <v>-0.97814760073380558</v>
       </c>
@@ -5640,11 +5640,11 @@
         <f t="shared" si="16"/>
         <v>4.9392817831439526</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="1">
         <f t="shared" si="15"/>
         <v>0.22495105434386492</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D284" s="1">
         <f t="shared" si="17"/>
         <v>-0.97437006478523525</v>
       </c>
@@ -5657,11 +5657,11 @@
         <f t="shared" si="16"/>
         <v>4.9567350756638957</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="1">
         <f t="shared" si="15"/>
         <v>0.24192189559966745</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D285" s="1">
         <f t="shared" si="17"/>
         <v>-0.97029572627599658</v>
       </c>
@@ -5674,11 +5674,11 @@
         <f t="shared" si="16"/>
         <v>4.9741883681838388</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="1">
         <f t="shared" si="15"/>
         <v>0.2588190451025203</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D286" s="1">
         <f t="shared" si="17"/>
         <v>-0.96592582628906842</v>
       </c>
@@ -5691,11 +5691,11 @@
         <f t="shared" si="16"/>
         <v>4.9916416607037828</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="1">
         <f t="shared" si="15"/>
         <v>0.27563735581699939</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287" s="1">
         <f t="shared" si="17"/>
         <v>-0.96126169593831878</v>
       </c>
@@ -5708,11 +5708,11 @@
         <f t="shared" si="16"/>
         <v>5.0090949532237259</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="1">
         <f t="shared" si="15"/>
         <v>0.29237170472273671</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288" s="1">
         <f t="shared" si="17"/>
         <v>-0.95630475596303544</v>
       </c>
@@ -5725,11 +5725,11 @@
         <f t="shared" si="16"/>
         <v>5.026548245743669</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="1">
         <f t="shared" si="15"/>
         <v>0.30901699437494723</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D289" s="1">
         <f t="shared" si="17"/>
         <v>-0.95105651629515364</v>
       </c>
@@ -5742,11 +5742,11 @@
         <f t="shared" si="16"/>
         <v>5.0440015382636121</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="1">
         <f t="shared" si="15"/>
         <v>0.32556815445715631</v>
       </c>
-      <c r="D290" s="3">
+      <c r="D290" s="1">
         <f t="shared" si="17"/>
         <v>-0.94551857559931696</v>
       </c>
@@ -5759,11 +5759,11 @@
         <f t="shared" si="16"/>
         <v>5.0614548307835561</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="1">
         <f t="shared" si="15"/>
         <v>0.34202014332566899</v>
       </c>
-      <c r="D291" s="3">
+      <c r="D291" s="1">
         <f t="shared" si="17"/>
         <v>-0.93969262078590832</v>
       </c>
@@ -5776,11 +5776,11 @@
         <f t="shared" si="16"/>
         <v>5.0789081233034992</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="1">
         <f t="shared" si="15"/>
         <v>0.35836794954530038</v>
       </c>
-      <c r="D292" s="3">
+      <c r="D292" s="1">
         <f t="shared" si="17"/>
         <v>-0.93358042649720174</v>
       </c>
@@ -5793,11 +5793,11 @@
         <f t="shared" si="16"/>
         <v>5.0963614158234423</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="1">
         <f t="shared" si="15"/>
         <v>0.37460659341591196</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D293" s="1">
         <f t="shared" si="17"/>
         <v>-0.92718385456678742</v>
       </c>
@@ -5810,11 +5810,11 @@
         <f t="shared" si="16"/>
         <v>5.1138147083433854</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="1">
         <f t="shared" si="15"/>
         <v>0.39073112848927349</v>
       </c>
-      <c r="D294" s="3">
+      <c r="D294" s="1">
         <f t="shared" si="17"/>
         <v>-0.92050485345244049</v>
       </c>
@@ -5827,11 +5827,11 @@
         <f t="shared" si="16"/>
         <v>5.1312680008633285</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="1">
         <f t="shared" si="15"/>
         <v>0.40673664307579976</v>
       </c>
-      <c r="D295" s="3">
+      <c r="D295" s="1">
         <f t="shared" si="17"/>
         <v>-0.91354545764260109</v>
       </c>
@@ -5844,11 +5844,11 @@
         <f t="shared" si="16"/>
         <v>5.1487212933832724</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="1">
         <f t="shared" si="15"/>
         <v>0.42261826174069961</v>
       </c>
-      <c r="D296" s="3">
+      <c r="D296" s="1">
         <f t="shared" si="17"/>
         <v>-0.90630778703664994</v>
       </c>
@@ -5861,11 +5861,11 @@
         <f t="shared" si="16"/>
         <v>5.1661745859032155</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="1">
         <f t="shared" si="15"/>
         <v>0.4383711467890774</v>
       </c>
-      <c r="D297" s="3">
+      <c r="D297" s="1">
         <f t="shared" si="17"/>
         <v>-0.89879404629916704</v>
       </c>
@@ -5878,11 +5878,11 @@
         <f t="shared" si="16"/>
         <v>5.1836278784231586</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="1">
         <f t="shared" si="15"/>
         <v>0.45399049973954664</v>
       </c>
-      <c r="D298" s="3">
+      <c r="D298" s="1">
         <f t="shared" si="17"/>
         <v>-0.8910065241883679</v>
       </c>
@@ -5895,11 +5895,11 @@
         <f t="shared" si="16"/>
         <v>5.2010811709431017</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="1">
         <f t="shared" si="15"/>
         <v>0.46947156278589042</v>
       </c>
-      <c r="D299" s="3">
+      <c r="D299" s="1">
         <f t="shared" si="17"/>
         <v>-0.8829475928589271</v>
       </c>
@@ -5912,11 +5912,11 @@
         <f t="shared" si="16"/>
         <v>5.2185344634630457</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300" s="1">
         <f t="shared" si="15"/>
         <v>0.48480962024633728</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D300" s="1">
         <f t="shared" si="17"/>
         <v>-0.87461970713939563</v>
       </c>
@@ -5929,11 +5929,11 @@
         <f t="shared" si="16"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="1">
         <f t="shared" si="15"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D301" s="1">
         <f t="shared" si="17"/>
         <v>-0.8660254037844386</v>
       </c>
@@ -5946,11 +5946,11 @@
         <f t="shared" si="16"/>
         <v>5.2534410485029319</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="1">
         <f t="shared" si="15"/>
         <v>0.51503807491005416</v>
       </c>
-      <c r="D302" s="3">
+      <c r="D302" s="1">
         <f t="shared" si="17"/>
         <v>-0.85716730070211233</v>
       </c>
@@ -5963,11 +5963,11 @@
         <f t="shared" si="16"/>
         <v>5.270894341022875</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="1">
         <f t="shared" si="15"/>
         <v>0.52991926423320468</v>
       </c>
-      <c r="D303" s="3">
+      <c r="D303" s="1">
         <f t="shared" si="17"/>
         <v>-0.84804809615642618</v>
       </c>
@@ -5980,11 +5980,11 @@
         <f t="shared" si="16"/>
         <v>5.2883476335428181</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="1">
         <f t="shared" si="15"/>
         <v>0.54463903501502664</v>
       </c>
-      <c r="D304" s="3">
+      <c r="D304" s="1">
         <f t="shared" si="17"/>
         <v>-0.83867056794542427</v>
       </c>
@@ -5997,11 +5997,11 @@
         <f t="shared" si="16"/>
         <v>5.3058009260627621</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="1">
         <f t="shared" si="15"/>
         <v>0.55919290347074702</v>
       </c>
-      <c r="D305" s="3">
+      <c r="D305" s="1">
         <f t="shared" si="17"/>
         <v>-0.82903757255504162</v>
       </c>
@@ -6014,11 +6014,11 @@
         <f t="shared" si="16"/>
         <v>5.3232542185827052</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="1">
         <f t="shared" si="15"/>
         <v>0.57357643635104605</v>
       </c>
-      <c r="D306" s="3">
+      <c r="D306" s="1">
         <f t="shared" si="17"/>
         <v>-0.8191520442889918</v>
       </c>
@@ -6031,11 +6031,11 @@
         <f t="shared" si="16"/>
         <v>5.3407075111026483</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="1">
         <f t="shared" si="15"/>
         <v>0.58778525229247292</v>
       </c>
-      <c r="D307" s="3">
+      <c r="D307" s="1">
         <f t="shared" si="17"/>
         <v>-0.80901699437494756</v>
       </c>
@@ -6048,11 +6048,11 @@
         <f t="shared" si="16"/>
         <v>5.3581608036225914</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="1">
         <f t="shared" si="15"/>
         <v>0.60181502315204793</v>
       </c>
-      <c r="D308" s="3">
+      <c r="D308" s="1">
         <f t="shared" si="17"/>
         <v>-0.79863551004729305</v>
       </c>
@@ -6065,11 +6065,11 @@
         <f t="shared" si="16"/>
         <v>5.3756140961425354</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="1">
         <f t="shared" si="15"/>
         <v>0.61566147532565851</v>
       </c>
-      <c r="D309" s="3">
+      <c r="D309" s="1">
         <f t="shared" si="17"/>
         <v>-0.78801075360672179</v>
       </c>
@@ -6082,11 +6082,11 @@
         <f t="shared" si="16"/>
         <v>5.3930673886624785</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="1">
         <f t="shared" si="15"/>
         <v>0.6293203910498375</v>
       </c>
-      <c r="D310" s="3">
+      <c r="D310" s="1">
         <f t="shared" si="17"/>
         <v>-0.77714596145697079</v>
       </c>
@@ -6099,11 +6099,11 @@
         <f t="shared" si="16"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="1">
         <f t="shared" si="15"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="D311" s="3">
+      <c r="D311" s="1">
         <f t="shared" si="17"/>
         <v>-0.76604444311897812</v>
       </c>
@@ -6116,11 +6116,11 @@
         <f t="shared" si="16"/>
         <v>5.4279739737023647</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="1">
         <f t="shared" si="15"/>
         <v>0.65605902899050705</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D312" s="1">
         <f t="shared" si="17"/>
         <v>-0.75470958022277224</v>
       </c>
@@ -6133,11 +6133,11 @@
         <f t="shared" si="16"/>
         <v>5.4454272662223078</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="1">
         <f t="shared" si="15"/>
         <v>0.66913060635885779</v>
       </c>
-      <c r="D313" s="3">
+      <c r="D313" s="1">
         <f t="shared" si="17"/>
         <v>-0.74314482547739458</v>
       </c>
@@ -6150,11 +6150,11 @@
         <f t="shared" si="16"/>
         <v>5.4628805587422518</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="1">
         <f t="shared" si="15"/>
         <v>0.68199836006249859</v>
       </c>
-      <c r="D314" s="3">
+      <c r="D314" s="1">
         <f t="shared" si="17"/>
         <v>-0.73135370161917035</v>
       </c>
@@ -6167,11 +6167,11 @@
         <f t="shared" si="16"/>
         <v>5.4803338512621949</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="1">
         <f t="shared" si="15"/>
         <v>0.69465837045899725</v>
       </c>
-      <c r="D315" s="3">
+      <c r="D315" s="1">
         <f t="shared" si="17"/>
         <v>-0.71933980033865119</v>
       </c>
@@ -6184,11 +6184,11 @@
         <f t="shared" si="16"/>
         <v>5.497787143782138</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="1">
         <f t="shared" si="15"/>
         <v>0.70710678118654735</v>
       </c>
-      <c r="D316" s="3">
+      <c r="D316" s="1">
         <f t="shared" si="17"/>
         <v>-0.70710678118654768</v>
       </c>
@@ -6201,11 +6201,11 @@
         <f t="shared" si="16"/>
         <v>5.5152404363020811</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="1">
         <f t="shared" si="15"/>
         <v>0.71933980033865086</v>
       </c>
-      <c r="D317" s="3">
+      <c r="D317" s="1">
         <f t="shared" si="17"/>
         <v>-0.69465837045899759</v>
       </c>
@@ -6218,11 +6218,11 @@
         <f t="shared" si="16"/>
         <v>5.532693728822025</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="1">
         <f t="shared" si="15"/>
         <v>0.73135370161917068</v>
       </c>
-      <c r="D318" s="3">
+      <c r="D318" s="1">
         <f t="shared" si="17"/>
         <v>-0.68199836006249825</v>
       </c>
@@ -6235,11 +6235,11 @@
         <f t="shared" si="16"/>
         <v>5.5501470213419681</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="1">
         <f t="shared" si="15"/>
         <v>0.74314482547739424</v>
       </c>
-      <c r="D319" s="3">
+      <c r="D319" s="1">
         <f t="shared" si="17"/>
         <v>-0.66913060635885813</v>
       </c>
@@ -6252,11 +6252,11 @@
         <f t="shared" si="16"/>
         <v>5.5676003138619112</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="1">
         <f t="shared" si="15"/>
         <v>0.7547095802227719</v>
       </c>
-      <c r="D320" s="3">
+      <c r="D320" s="1">
         <f t="shared" si="17"/>
         <v>-0.65605902899050739</v>
       </c>
@@ -6269,11 +6269,11 @@
         <f t="shared" si="16"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="1">
         <f t="shared" ref="C321:C361" si="18">COS(RADIANS(A321))</f>
         <v>0.76604444311897779</v>
       </c>
-      <c r="D321" s="3">
+      <c r="D321" s="1">
         <f t="shared" si="17"/>
         <v>-0.64278760968653958</v>
       </c>
@@ -6286,11 +6286,11 @@
         <f t="shared" ref="B322:B361" si="19">RADIANS(A322)</f>
         <v>5.6025068989017974</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C322" s="1">
         <f t="shared" si="18"/>
         <v>0.77714596145697057</v>
       </c>
-      <c r="D322" s="3">
+      <c r="D322" s="1">
         <f t="shared" ref="D322:D361" si="20">SIN(RADIANS(A322))</f>
         <v>-0.62932039104983784</v>
       </c>
@@ -6303,11 +6303,11 @@
         <f t="shared" si="19"/>
         <v>5.6199601914217414</v>
       </c>
-      <c r="C323" s="3">
+      <c r="C323" s="1">
         <f t="shared" si="18"/>
         <v>0.78801075360672201</v>
       </c>
-      <c r="D323" s="3">
+      <c r="D323" s="1">
         <f t="shared" si="20"/>
         <v>-0.61566147532565818</v>
       </c>
@@ -6320,11 +6320,11 @@
         <f t="shared" si="19"/>
         <v>5.6374134839416845</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="1">
         <f t="shared" si="18"/>
         <v>0.79863551004729283</v>
       </c>
-      <c r="D324" s="3">
+      <c r="D324" s="1">
         <f t="shared" si="20"/>
         <v>-0.60181502315204827</v>
       </c>
@@ -6337,11 +6337,11 @@
         <f t="shared" si="19"/>
         <v>5.6548667764616276</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="1">
         <f t="shared" si="18"/>
         <v>0.80901699437494734</v>
       </c>
-      <c r="D325" s="3">
+      <c r="D325" s="1">
         <f t="shared" si="20"/>
         <v>-0.58778525229247336</v>
       </c>
@@ -6354,11 +6354,11 @@
         <f t="shared" si="19"/>
         <v>5.6723200689815707</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326" s="1">
         <f t="shared" si="18"/>
         <v>0.81915204428899158</v>
       </c>
-      <c r="D326" s="3">
+      <c r="D326" s="1">
         <f t="shared" si="20"/>
         <v>-0.57357643635104649</v>
       </c>
@@ -6371,11 +6371,11 @@
         <f t="shared" si="19"/>
         <v>5.6897733615015147</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327" s="1">
         <f t="shared" si="18"/>
         <v>0.82903757255504185</v>
       </c>
-      <c r="D327" s="3">
+      <c r="D327" s="1">
         <f t="shared" si="20"/>
         <v>-0.55919290347074657</v>
       </c>
@@ -6388,11 +6388,11 @@
         <f t="shared" si="19"/>
         <v>5.7072266540214578</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328" s="1">
         <f t="shared" si="18"/>
         <v>0.83867056794542405</v>
       </c>
-      <c r="D328" s="3">
+      <c r="D328" s="1">
         <f t="shared" si="20"/>
         <v>-0.54463903501502697</v>
       </c>
@@ -6405,11 +6405,11 @@
         <f t="shared" si="19"/>
         <v>5.7246799465414009</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329" s="1">
         <f t="shared" si="18"/>
         <v>0.84804809615642596</v>
       </c>
-      <c r="D329" s="3">
+      <c r="D329" s="1">
         <f t="shared" si="20"/>
         <v>-0.52991926423320501</v>
       </c>
@@ -6422,11 +6422,11 @@
         <f t="shared" si="19"/>
         <v>5.742133239061344</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330" s="1">
         <f t="shared" si="18"/>
         <v>0.85716730070211211</v>
       </c>
-      <c r="D330" s="3">
+      <c r="D330" s="1">
         <f t="shared" si="20"/>
         <v>-0.51503807491005449</v>
       </c>
@@ -6439,11 +6439,11 @@
         <f t="shared" si="19"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331" s="1">
         <f t="shared" si="18"/>
         <v>0.86602540378443837</v>
       </c>
-      <c r="D331" s="3">
+      <c r="D331" s="1">
         <f t="shared" si="20"/>
         <v>-0.50000000000000044</v>
       </c>
@@ -6456,11 +6456,11 @@
         <f t="shared" si="19"/>
         <v>5.7770398241012311</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332" s="1">
         <f t="shared" si="18"/>
         <v>0.87461970713939585</v>
       </c>
-      <c r="D332" s="3">
+      <c r="D332" s="1">
         <f t="shared" si="20"/>
         <v>-0.48480962024633689</v>
       </c>
@@ -6473,11 +6473,11 @@
         <f t="shared" si="19"/>
         <v>5.7944931166211742</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333" s="1">
         <f t="shared" si="18"/>
         <v>0.88294759285892688</v>
       </c>
-      <c r="D333" s="3">
+      <c r="D333" s="1">
         <f t="shared" si="20"/>
         <v>-0.46947156278589081</v>
       </c>
@@ -6490,11 +6490,11 @@
         <f t="shared" si="19"/>
         <v>5.8119464091411173</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334" s="1">
         <f t="shared" si="18"/>
         <v>0.89100652418836779</v>
       </c>
-      <c r="D334" s="3">
+      <c r="D334" s="1">
         <f t="shared" si="20"/>
         <v>-0.45399049973954697</v>
       </c>
@@ -6507,11 +6507,11 @@
         <f t="shared" si="19"/>
         <v>5.8293997016610604</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335" s="1">
         <f>COS(RADIANS(A335))</f>
         <v>0.89879404629916682</v>
       </c>
-      <c r="D335" s="3">
+      <c r="D335" s="1">
         <f t="shared" si="20"/>
         <v>-0.43837114678907779</v>
       </c>
@@ -6524,11 +6524,11 @@
         <f t="shared" si="19"/>
         <v>5.8468529941810043</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336" s="1">
         <f t="shared" si="18"/>
         <v>0.90630778703665005</v>
       </c>
-      <c r="D336" s="3">
+      <c r="D336" s="1">
         <f t="shared" si="20"/>
         <v>-0.42261826174069922</v>
       </c>
@@ -6541,11 +6541,11 @@
         <f t="shared" si="19"/>
         <v>5.8643062867009474</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337" s="1">
         <f t="shared" si="18"/>
         <v>0.91354545764260098</v>
       </c>
-      <c r="D337" s="3">
+      <c r="D337" s="1">
         <f t="shared" si="20"/>
         <v>-0.40673664307580015</v>
       </c>
@@ -6558,11 +6558,11 @@
         <f t="shared" si="19"/>
         <v>5.8817595792208905</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="1">
         <f t="shared" si="18"/>
         <v>0.92050485345244026</v>
       </c>
-      <c r="D338" s="3">
+      <c r="D338" s="1">
         <f t="shared" si="20"/>
         <v>-0.39073112848927388</v>
       </c>
@@ -6575,11 +6575,11 @@
         <f t="shared" si="19"/>
         <v>5.8992128717408336</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339" s="1">
         <f t="shared" si="18"/>
         <v>0.92718385456678731</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D339" s="1">
         <f t="shared" si="20"/>
         <v>-0.37460659341591235</v>
       </c>
@@ -6592,11 +6592,11 @@
         <f t="shared" si="19"/>
         <v>5.9166661642607767</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340" s="1">
         <f t="shared" si="18"/>
         <v>0.93358042649720152</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340" s="1">
         <f t="shared" si="20"/>
         <v>-0.35836794954530077</v>
       </c>
@@ -6609,11 +6609,11 @@
         <f t="shared" si="19"/>
         <v>5.9341194567807207</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341" s="1">
         <f t="shared" si="18"/>
         <v>0.93969262078590843</v>
       </c>
-      <c r="D341" s="3">
+      <c r="D341" s="1">
         <f t="shared" si="20"/>
         <v>-0.3420201433256686</v>
       </c>
@@ -6626,11 +6626,11 @@
         <f t="shared" si="19"/>
         <v>5.9515727493006638</v>
       </c>
-      <c r="C342" s="3">
+      <c r="C342" s="1">
         <f t="shared" si="18"/>
         <v>0.94551857559931685</v>
       </c>
-      <c r="D342" s="3">
+      <c r="D342" s="1">
         <f t="shared" si="20"/>
         <v>-0.3255681544571567</v>
       </c>
@@ -6643,11 +6643,11 @@
         <f t="shared" si="19"/>
         <v>5.9690260418206069</v>
       </c>
-      <c r="C343" s="3">
+      <c r="C343" s="1">
         <f t="shared" si="18"/>
         <v>0.95105651629515353</v>
       </c>
-      <c r="D343" s="3">
+      <c r="D343" s="1">
         <f t="shared" si="20"/>
         <v>-0.30901699437494762</v>
       </c>
@@ -6660,11 +6660,11 @@
         <f t="shared" si="19"/>
         <v>5.98647933434055</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C344" s="1">
         <f t="shared" si="18"/>
         <v>0.95630475596303532</v>
       </c>
-      <c r="D344" s="3">
+      <c r="D344" s="1">
         <f t="shared" si="20"/>
         <v>-0.29237170472273716</v>
       </c>
@@ -6677,11 +6677,11 @@
         <f t="shared" si="19"/>
         <v>6.003932626860494</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345" s="1">
         <f t="shared" si="18"/>
         <v>0.96126169593831889</v>
       </c>
-      <c r="D345" s="3">
+      <c r="D345" s="1">
         <f t="shared" si="20"/>
         <v>-0.27563735581699894</v>
       </c>
@@ -6694,11 +6694,11 @@
         <f t="shared" si="19"/>
         <v>6.0213859193804371</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346" s="1">
         <f t="shared" si="18"/>
         <v>0.96592582628906831</v>
       </c>
-      <c r="D346" s="3">
+      <c r="D346" s="1">
         <f t="shared" si="20"/>
         <v>-0.25881904510252068</v>
       </c>
@@ -6711,11 +6711,11 @@
         <f t="shared" si="19"/>
         <v>6.0388392119003802</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347" s="1">
         <f t="shared" si="18"/>
         <v>0.97029572627599647</v>
       </c>
-      <c r="D347" s="3">
+      <c r="D347" s="1">
         <f t="shared" si="20"/>
         <v>-0.24192189559966787</v>
       </c>
@@ -6728,11 +6728,11 @@
         <f t="shared" si="19"/>
         <v>6.0562925044203233</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348" s="1">
         <f t="shared" si="18"/>
         <v>0.97437006478523513</v>
       </c>
-      <c r="D348" s="3">
+      <c r="D348" s="1">
         <f t="shared" si="20"/>
         <v>-0.22495105434386534</v>
       </c>
@@ -6745,11 +6745,11 @@
         <f t="shared" si="19"/>
         <v>6.0737457969402664</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349" s="1">
         <f t="shared" si="18"/>
         <v>0.97814760073380558</v>
       </c>
-      <c r="D349" s="3">
+      <c r="D349" s="1">
         <f t="shared" si="20"/>
         <v>-0.20791169081775987</v>
       </c>
@@ -6762,11 +6762,11 @@
         <f t="shared" si="19"/>
         <v>6.0911990894602104</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350" s="1">
         <f t="shared" si="18"/>
         <v>0.98162718344766398</v>
       </c>
-      <c r="D350" s="3">
+      <c r="D350" s="1">
         <f t="shared" si="20"/>
         <v>-0.19080899537654467</v>
       </c>
@@ -6779,11 +6779,11 @@
         <f t="shared" si="19"/>
         <v>6.1086523819801535</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351" s="1">
         <f t="shared" si="18"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D351" s="3">
+      <c r="D351" s="1">
         <f t="shared" si="20"/>
         <v>-0.17364817766693039</v>
       </c>
@@ -6796,11 +6796,11 @@
         <f t="shared" si="19"/>
         <v>6.1261056745000966</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="1">
         <f t="shared" si="18"/>
         <v>0.98768834059513766</v>
       </c>
-      <c r="D352" s="3">
+      <c r="D352" s="1">
         <f t="shared" si="20"/>
         <v>-0.15643446504023112</v>
       </c>
@@ -6813,11 +6813,11 @@
         <f t="shared" si="19"/>
         <v>6.1435589670200397</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353" s="1">
         <f t="shared" si="18"/>
         <v>0.99026806874157025</v>
       </c>
-      <c r="D353" s="3">
+      <c r="D353" s="1">
         <f t="shared" si="20"/>
         <v>-0.13917310096006588</v>
       </c>
@@ -6830,11 +6830,11 @@
         <f t="shared" si="19"/>
         <v>6.1610122595399837</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354" s="1">
         <f t="shared" si="18"/>
         <v>0.99254615164132209</v>
       </c>
-      <c r="D354" s="3">
+      <c r="D354" s="1">
         <f t="shared" si="20"/>
         <v>-0.12186934340514723</v>
       </c>
@@ -6847,11 +6847,11 @@
         <f t="shared" si="19"/>
         <v>6.1784655520599268</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355" s="1">
         <f t="shared" si="18"/>
         <v>0.99452189536827329</v>
       </c>
-      <c r="D355" s="3">
+      <c r="D355" s="1">
         <f t="shared" si="20"/>
         <v>-0.10452846326765342</v>
       </c>
@@ -6864,11 +6864,11 @@
         <f t="shared" si="19"/>
         <v>6.1959188445798699</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356" s="1">
         <f t="shared" si="18"/>
         <v>0.99619469809174555</v>
       </c>
-      <c r="D356" s="3">
+      <c r="D356" s="1">
         <f t="shared" si="20"/>
         <v>-8.7155742747658319E-2</v>
       </c>
@@ -6881,11 +6881,11 @@
         <f t="shared" si="19"/>
         <v>6.213372137099813</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357" s="1">
         <f t="shared" si="18"/>
         <v>0.9975640502598242</v>
       </c>
-      <c r="D357" s="3">
+      <c r="D357" s="1">
         <f t="shared" si="20"/>
         <v>-6.9756473744125636E-2</v>
       </c>
@@ -6898,11 +6898,11 @@
         <f t="shared" si="19"/>
         <v>6.2308254296197561</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358" s="1">
         <f t="shared" si="18"/>
         <v>0.99862953475457383</v>
       </c>
-      <c r="D358" s="3">
+      <c r="D358" s="1">
         <f t="shared" si="20"/>
         <v>-5.2335956242944369E-2</v>
       </c>
@@ -6915,11 +6915,11 @@
         <f t="shared" si="19"/>
         <v>6.2482787221397</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359" s="1">
         <f t="shared" si="18"/>
         <v>0.99939082701909576</v>
       </c>
-      <c r="D359" s="3">
+      <c r="D359" s="1">
         <f t="shared" si="20"/>
         <v>-3.4899496702500823E-2</v>
       </c>
@@ -6932,11 +6932,11 @@
         <f t="shared" si="19"/>
         <v>6.2657320146596431</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360" s="1">
         <f t="shared" si="18"/>
         <v>0.99984769515639127</v>
       </c>
-      <c r="D360" s="3">
+      <c r="D360" s="1">
         <f t="shared" si="20"/>
         <v>-1.745240643728356E-2</v>
       </c>
@@ -6949,11 +6949,11 @@
         <f t="shared" si="19"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361" s="1">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="D361" s="3">
+      <c r="D361" s="1">
         <f t="shared" si="20"/>
         <v>-2.45029690981724E-16</v>
       </c>
